--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_14_26.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_14_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>482333.581824328</v>
+        <v>481655.7611440567</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>313298.4515052318</v>
+        <v>313298.4515052313</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058546</v>
+        <v>632041.4518058543</v>
       </c>
     </row>
     <row r="9">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="C11" t="n">
-        <v>122.0492982736046</v>
+        <v>18.84381519390149</v>
       </c>
       <c r="D11" t="n">
-        <v>79.46458862645849</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>32.88999934163206</v>
       </c>
       <c r="T11" t="n">
-        <v>28.03643329293232</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>55.76720738385734</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1458,10 +1458,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>64.81587919489959</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>65.73554842808879</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>51.93274503525221</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="T12" t="n">
-        <v>20.56530653072805</v>
+        <v>20.56530653072803</v>
       </c>
       <c r="U12" t="n">
-        <v>42.84521610603985</v>
+        <v>42.84521610603982</v>
       </c>
       <c r="V12" t="n">
-        <v>122.0492982736046</v>
+        <v>46.2664452405476</v>
       </c>
       <c r="W12" t="n">
-        <v>72.32210790215697</v>
+        <v>72.32210790215694</v>
       </c>
       <c r="X12" t="n">
-        <v>122.0492982736046</v>
+        <v>22.93043876461596</v>
       </c>
       <c r="Y12" t="n">
-        <v>29.001810459171</v>
+        <v>29.00181045917097</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>8.83106205942059</v>
+        <v>8.831062059420562</v>
       </c>
       <c r="S13" t="n">
-        <v>40.97168601871272</v>
+        <v>40.97168601871269</v>
       </c>
       <c r="T13" t="n">
-        <v>29.35851686199514</v>
+        <v>29.35851686199511</v>
       </c>
       <c r="U13" t="n">
-        <v>94.27381875013474</v>
+        <v>94.27381875013471</v>
       </c>
       <c r="V13" t="n">
-        <v>50.72653950959528</v>
+        <v>50.72653950959526</v>
       </c>
       <c r="W13" t="n">
-        <v>95.92823141448071</v>
+        <v>95.92823141448068</v>
       </c>
       <c r="X13" t="n">
-        <v>27.53697973338791</v>
+        <v>27.53697973338788</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.7587971393138</v>
+        <v>22.75879713931377</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>74.6110225777589</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="F14" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>112.8566801745739</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>32.88999934163203</v>
+        <v>32.88999934163206</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>28.03643329293229</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>55.76720738385734</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.136586121265598</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>111.5317073420754</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="T15" t="n">
-        <v>20.565306530728</v>
+        <v>20.56530653072803</v>
       </c>
       <c r="U15" t="n">
-        <v>61.39465006039202</v>
+        <v>42.84521610603982</v>
       </c>
       <c r="V15" t="n">
-        <v>46.26644524054757</v>
+        <v>46.2664452405476</v>
       </c>
       <c r="W15" t="n">
-        <v>72.32210790215692</v>
+        <v>72.32210790215694</v>
       </c>
       <c r="X15" t="n">
-        <v>122.0492982736046</v>
+        <v>22.93043876461596</v>
       </c>
       <c r="Y15" t="n">
-        <v>29.00181045917094</v>
+        <v>29.00181045917097</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>8.831062059420534</v>
+        <v>8.831062059420562</v>
       </c>
       <c r="S16" t="n">
-        <v>40.97168601871266</v>
+        <v>40.97168601871269</v>
       </c>
       <c r="T16" t="n">
-        <v>29.35851686199508</v>
+        <v>29.35851686199511</v>
       </c>
       <c r="U16" t="n">
-        <v>94.27381875013468</v>
+        <v>94.27381875013471</v>
       </c>
       <c r="V16" t="n">
-        <v>50.72653950959523</v>
+        <v>50.72653950959526</v>
       </c>
       <c r="W16" t="n">
-        <v>95.92823141448065</v>
+        <v>95.92823141448068</v>
       </c>
       <c r="X16" t="n">
-        <v>27.53697973338785</v>
+        <v>27.53697973338788</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.75879713931374</v>
+        <v>22.75879713931377</v>
       </c>
     </row>
     <row r="17">
@@ -1932,13 +1932,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>101.3644357981254</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1965,13 +1965,13 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.136586121265598</v>
       </c>
       <c r="R18" t="n">
-        <v>107.5010219193909</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1986,10 +1986,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>53.20745676868137</v>
+        <v>53.20745676868148</v>
       </c>
       <c r="C20" t="n">
-        <v>29.32571377202686</v>
+        <v>29.32571377202697</v>
       </c>
       <c r="D20" t="n">
-        <v>16.89237603307532</v>
+        <v>16.89237603307544</v>
       </c>
       <c r="E20" t="n">
-        <v>50.59912845248419</v>
+        <v>50.59912845248431</v>
       </c>
       <c r="F20" t="n">
-        <v>82.31946603086152</v>
+        <v>82.31946603086163</v>
       </c>
       <c r="G20" t="n">
-        <v>97.94765892927444</v>
+        <v>97.94765892927455</v>
       </c>
       <c r="H20" t="n">
-        <v>26.03172204233385</v>
+        <v>26.03172204233397</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>17.01668021661493</v>
+        <v>17.01668021661504</v>
       </c>
       <c r="X20" t="n">
-        <v>38.90293068555417</v>
+        <v>38.90293068555428</v>
       </c>
       <c r="Y20" t="n">
-        <v>61.40578380929793</v>
+        <v>61.40578380929804</v>
       </c>
     </row>
     <row r="21">
@@ -2157,28 +2157,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.3352829456699408</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>107.1657389737211</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2211,13 +2211,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="V21" t="n">
-        <v>107.5010219193909</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>53.20745676868137</v>
+        <v>53.20745676868148</v>
       </c>
       <c r="C23" t="n">
-        <v>29.32571377202686</v>
+        <v>29.32571377202697</v>
       </c>
       <c r="D23" t="n">
-        <v>16.89237603307532</v>
+        <v>16.89237603307544</v>
       </c>
       <c r="E23" t="n">
-        <v>50.59912845248419</v>
+        <v>50.59912845248431</v>
       </c>
       <c r="F23" t="n">
-        <v>82.31946603086152</v>
+        <v>82.31946603086163</v>
       </c>
       <c r="G23" t="n">
-        <v>97.94765892927444</v>
+        <v>97.94765892927455</v>
       </c>
       <c r="H23" t="n">
-        <v>26.03172204233385</v>
+        <v>26.03172204233397</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>17.01668021661493</v>
+        <v>17.01668021661504</v>
       </c>
       <c r="X23" t="n">
-        <v>38.90293068555417</v>
+        <v>38.90293068555428</v>
       </c>
       <c r="Y23" t="n">
-        <v>61.40578380929793</v>
+        <v>61.40578380929804</v>
       </c>
     </row>
     <row r="24">
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>122.0492982736046</v>
+        <v>107.5010219193912</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>122.0492982736049</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2442,19 +2442,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>122.0492982736049</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>122.0492982736049</v>
       </c>
       <c r="U24" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>107.5010219193909</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161.1700831296931</v>
+        <v>161.170083129693</v>
       </c>
       <c r="C26" t="n">
-        <v>137.2883401330386</v>
+        <v>137.2883401330385</v>
       </c>
       <c r="D26" t="n">
-        <v>124.8550023940871</v>
+        <v>124.855002394087</v>
       </c>
       <c r="E26" t="n">
         <v>158.5617548134959</v>
@@ -2567,13 +2567,13 @@
         <v>190.2820923918732</v>
       </c>
       <c r="G26" t="n">
-        <v>205.9102852902862</v>
+        <v>205.9102852902861</v>
       </c>
       <c r="H26" t="n">
         <v>133.9943484033456</v>
       </c>
       <c r="I26" t="n">
-        <v>27.67892728751269</v>
+        <v>27.67892728751264</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.35531776834648</v>
+        <v>14.35531776834642</v>
       </c>
       <c r="T26" t="n">
-        <v>9.501751719646711</v>
+        <v>9.501751719646654</v>
       </c>
       <c r="U26" t="n">
-        <v>37.23252581057175</v>
+        <v>37.2325258105717</v>
       </c>
       <c r="V26" t="n">
-        <v>107.9626263610118</v>
+        <v>107.9626263610117</v>
       </c>
       <c r="W26" t="n">
-        <v>124.9793065776267</v>
+        <v>124.9793065776266</v>
       </c>
       <c r="X26" t="n">
-        <v>146.8655570465659</v>
+        <v>146.8655570465658</v>
       </c>
       <c r="Y26" t="n">
-        <v>169.3684101703097</v>
+        <v>169.3684101703096</v>
       </c>
     </row>
     <row r="27">
@@ -2631,16 +2631,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>31.75684992197459</v>
+        <v>58.11278022365543</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T27" t="n">
-        <v>2.030624957442446</v>
+        <v>2.030624957442389</v>
       </c>
       <c r="U27" t="n">
-        <v>24.31053453275424</v>
+        <v>24.31053453275419</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>53.78742632887131</v>
       </c>
       <c r="X27" t="n">
-        <v>4.395757191330375</v>
+        <v>4.395757191330318</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.46712888588539</v>
+        <v>10.46712888588533</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.43700444542711</v>
+        <v>22.43700444542705</v>
       </c>
       <c r="T28" t="n">
-        <v>10.82383528870953</v>
+        <v>10.82383528870947</v>
       </c>
       <c r="U28" t="n">
-        <v>75.73913717684913</v>
+        <v>75.73913717684907</v>
       </c>
       <c r="V28" t="n">
-        <v>32.19185793630967</v>
+        <v>32.19185793630962</v>
       </c>
       <c r="W28" t="n">
-        <v>77.3935498411951</v>
+        <v>77.39354984119504</v>
       </c>
       <c r="X28" t="n">
-        <v>9.002298160102299</v>
+        <v>9.002298160102242</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.224115566028189</v>
+        <v>4.224115566028132</v>
       </c>
     </row>
     <row r="29">
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>161.1700831296931</v>
+        <v>161.170083129693</v>
       </c>
       <c r="C29" t="n">
-        <v>137.2883401330386</v>
+        <v>137.2883401330385</v>
       </c>
       <c r="D29" t="n">
         <v>124.855002394087</v>
@@ -2810,7 +2810,7 @@
         <v>133.9943484033456</v>
       </c>
       <c r="I29" t="n">
-        <v>27.67892728751266</v>
+        <v>27.67892728751263</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.35531776834645</v>
+        <v>14.35531776834642</v>
       </c>
       <c r="T29" t="n">
-        <v>9.501751719646682</v>
+        <v>9.501751719646654</v>
       </c>
       <c r="U29" t="n">
-        <v>37.23252581057173</v>
+        <v>37.2325258105717</v>
       </c>
       <c r="V29" t="n">
-        <v>107.9626263610118</v>
+        <v>107.9626263610117</v>
       </c>
       <c r="W29" t="n">
         <v>124.9793065776266</v>
       </c>
       <c r="X29" t="n">
-        <v>146.8655570465659</v>
+        <v>146.8655570465658</v>
       </c>
       <c r="Y29" t="n">
         <v>169.3684101703096</v>
@@ -2874,19 +2874,19 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>123.9168538501465</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>125.6800758778345</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2922,19 +2922,19 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2.030624957442417</v>
+        <v>2.030624957442389</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2276917808945</v>
+        <v>24.31053453275419</v>
       </c>
       <c r="V30" t="n">
-        <v>77.0667929103238</v>
+        <v>27.73176366726196</v>
       </c>
       <c r="W30" t="n">
-        <v>53.78742632887133</v>
+        <v>53.78742632887131</v>
       </c>
       <c r="X30" t="n">
-        <v>4.395757191330347</v>
+        <v>4.395757191330318</v>
       </c>
       <c r="Y30" t="n">
         <v>223.3842861340256</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.43700444542708</v>
+        <v>22.43700444542705</v>
       </c>
       <c r="T31" t="n">
-        <v>10.8238352887095</v>
+        <v>10.82383528870947</v>
       </c>
       <c r="U31" t="n">
-        <v>75.7391371768491</v>
+        <v>75.73913717684907</v>
       </c>
       <c r="V31" t="n">
-        <v>32.19185793630965</v>
+        <v>32.19185793630962</v>
       </c>
       <c r="W31" t="n">
-        <v>77.39354984119507</v>
+        <v>77.39354984119504</v>
       </c>
       <c r="X31" t="n">
-        <v>9.002298160102271</v>
+        <v>9.002298160102242</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.224115566028161</v>
+        <v>4.224115566028132</v>
       </c>
     </row>
     <row r="32">
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>161.1700831296931</v>
+        <v>161.170083129693</v>
       </c>
       <c r="C32" t="n">
-        <v>137.2883401330386</v>
+        <v>137.2883401330385</v>
       </c>
       <c r="D32" t="n">
-        <v>124.8550023940871</v>
+        <v>124.855002394087</v>
       </c>
       <c r="E32" t="n">
         <v>158.5617548134959</v>
@@ -3041,13 +3041,13 @@
         <v>190.2820923918732</v>
       </c>
       <c r="G32" t="n">
-        <v>205.9102852902862</v>
+        <v>205.9102852902861</v>
       </c>
       <c r="H32" t="n">
-        <v>133.9943484033456</v>
+        <v>133.9943484033455</v>
       </c>
       <c r="I32" t="n">
-        <v>27.67892728751269</v>
+        <v>27.67892728751261</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.35531776834648</v>
+        <v>14.35531776834642</v>
       </c>
       <c r="T32" t="n">
-        <v>9.501751719646705</v>
+        <v>9.501751719646649</v>
       </c>
       <c r="U32" t="n">
-        <v>37.23252581057176</v>
+        <v>37.2325258105717</v>
       </c>
       <c r="V32" t="n">
-        <v>107.9626263610118</v>
+        <v>107.9626263610117</v>
       </c>
       <c r="W32" t="n">
-        <v>124.9793065776267</v>
+        <v>124.9793065776266</v>
       </c>
       <c r="X32" t="n">
-        <v>146.8655570465659</v>
+        <v>146.8655570465658</v>
       </c>
       <c r="Y32" t="n">
-        <v>169.3684101703097</v>
+        <v>169.3684101703096</v>
       </c>
     </row>
     <row r="33">
@@ -3114,13 +3114,13 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>36.67977247984081</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>210.5379692770827</v>
+        <v>214.9477822055827</v>
       </c>
       <c r="U33" t="n">
-        <v>24.31053453275424</v>
+        <v>24.31053453275419</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>53.78742632887136</v>
+        <v>53.78742632887131</v>
       </c>
       <c r="X33" t="n">
-        <v>217.3129144394706</v>
+        <v>4.395757191330318</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.46712888588539</v>
+        <v>10.46712888588533</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.43700444542711</v>
+        <v>22.43700444542705</v>
       </c>
       <c r="T34" t="n">
-        <v>10.82383528870953</v>
+        <v>10.82383528870947</v>
       </c>
       <c r="U34" t="n">
-        <v>75.73913717684913</v>
+        <v>75.73913717684907</v>
       </c>
       <c r="V34" t="n">
-        <v>32.19185793630967</v>
+        <v>32.19185793630962</v>
       </c>
       <c r="W34" t="n">
-        <v>77.3935498411951</v>
+        <v>77.39354984119504</v>
       </c>
       <c r="X34" t="n">
-        <v>9.002298160102299</v>
+        <v>9.002298160102242</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.224115566028189</v>
+        <v>4.224115566028132</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>102.1122634693137</v>
       </c>
       <c r="D35" t="n">
-        <v>89.67892573036215</v>
+        <v>89.67892573036212</v>
       </c>
       <c r="E35" t="n">
         <v>123.385678149771</v>
@@ -3278,10 +3278,10 @@
         <v>155.1060157281483</v>
       </c>
       <c r="G35" t="n">
-        <v>170.7342086265613</v>
+        <v>170.7342086265612</v>
       </c>
       <c r="H35" t="n">
-        <v>98.81827173962068</v>
+        <v>98.81827173962066</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.056449146846859</v>
+        <v>2.05644914684683</v>
       </c>
       <c r="V35" t="n">
-        <v>72.78654969728689</v>
+        <v>72.78654969728686</v>
       </c>
       <c r="W35" t="n">
-        <v>89.80322991390176</v>
+        <v>89.80322991390173</v>
       </c>
       <c r="X35" t="n">
         <v>111.689480382841</v>
       </c>
       <c r="Y35" t="n">
-        <v>134.1923335065848</v>
+        <v>134.1923335065847</v>
       </c>
     </row>
     <row r="36">
@@ -3345,16 +3345,16 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>25.24593254398784</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>167.2545986911713</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>107.1657389737211</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3402,10 +3402,10 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>18.61134966514646</v>
+        <v>18.61134966514643</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>40.56306051312422</v>
+        <v>40.56306051312419</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>42.2174731774702</v>
+        <v>42.21747317747017</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>102.1122634693137</v>
       </c>
       <c r="D38" t="n">
-        <v>89.67892573036215</v>
+        <v>89.67892573036212</v>
       </c>
       <c r="E38" t="n">
         <v>123.385678149771</v>
@@ -3515,10 +3515,10 @@
         <v>155.1060157281483</v>
       </c>
       <c r="G38" t="n">
-        <v>170.7342086265613</v>
+        <v>170.7342086265612</v>
       </c>
       <c r="H38" t="n">
-        <v>98.81827173962068</v>
+        <v>98.81827173962066</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.056449146846859</v>
+        <v>2.05644914684683</v>
       </c>
       <c r="V38" t="n">
-        <v>72.78654969728689</v>
+        <v>72.78654969728686</v>
       </c>
       <c r="W38" t="n">
-        <v>89.80322991390176</v>
+        <v>89.80322991390173</v>
       </c>
       <c r="X38" t="n">
         <v>111.689480382841</v>
       </c>
       <c r="Y38" t="n">
-        <v>134.1923335065848</v>
+        <v>134.1923335065847</v>
       </c>
     </row>
     <row r="39">
@@ -3579,31 +3579,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>125.6800758778345</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>51.9327450352522</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3642,10 +3642,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>238.5468559387223</v>
+        <v>18.61134966514643</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>47.83321468768596</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>40.56306051312422</v>
+        <v>40.56306051312419</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>42.2174731774702</v>
+        <v>42.21747317747017</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,10 +3743,10 @@
         <v>109.6094128455259</v>
       </c>
       <c r="D41" t="n">
-        <v>97.17607510657436</v>
+        <v>97.17607510657439</v>
       </c>
       <c r="E41" t="n">
-        <v>130.8828275259832</v>
+        <v>130.8828275259833</v>
       </c>
       <c r="F41" t="n">
         <v>162.6031651043606</v>
@@ -3794,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.553598523059065</v>
+        <v>9.553598523059085</v>
       </c>
       <c r="V41" t="n">
-        <v>80.28369907349909</v>
+        <v>80.28369907349912</v>
       </c>
       <c r="W41" t="n">
-        <v>97.30037929011397</v>
+        <v>97.30037929011399</v>
       </c>
       <c r="X41" t="n">
         <v>119.1866297590532</v>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>125.6800758778345</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3873,19 +3873,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2276917808945</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>26.10849904135867</v>
+        <v>256.3725599713546</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>81.25221080201133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>48.06020988933643</v>
+        <v>48.06020988933646</v>
       </c>
       <c r="V43" t="n">
-        <v>4.512930648796981</v>
+        <v>4.51293064879701</v>
       </c>
       <c r="W43" t="n">
-        <v>49.7146225536824</v>
+        <v>49.71462255368243</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3977,13 +3977,13 @@
         <v>133.4911558421804</v>
       </c>
       <c r="C44" t="n">
-        <v>109.6094128455259</v>
+        <v>109.609412845526</v>
       </c>
       <c r="D44" t="n">
-        <v>97.17607510657436</v>
+        <v>97.17607510657439</v>
       </c>
       <c r="E44" t="n">
-        <v>130.8828275259832</v>
+        <v>130.8828275259833</v>
       </c>
       <c r="F44" t="n">
         <v>162.6031651043606</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.553598523059058</v>
+        <v>9.553598523059087</v>
       </c>
       <c r="V44" t="n">
-        <v>80.28369907349909</v>
+        <v>80.28369907349912</v>
       </c>
       <c r="W44" t="n">
-        <v>97.30037929011397</v>
+        <v>97.30037929011399</v>
       </c>
       <c r="X44" t="n">
         <v>119.1866297590532</v>
@@ -4062,13 +4062,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>119.5557698953028</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>148.7388631915159</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4110,13 +4110,13 @@
         <v>214.9477822055827</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.2276917808945</v>
       </c>
       <c r="V45" t="n">
-        <v>0.05283637974932276</v>
+        <v>0.05283637974935118</v>
       </c>
       <c r="W45" t="n">
-        <v>234.15309752604</v>
+        <v>26.1084990413587</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>48.06020988933643</v>
+        <v>48.06020988933646</v>
       </c>
       <c r="V46" t="n">
-        <v>4.512930648796981</v>
+        <v>4.51293064879701</v>
       </c>
       <c r="W46" t="n">
-        <v>49.7146225536824</v>
+        <v>49.71462255368243</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>459.8775635055977</v>
+        <v>28.79810062340511</v>
       </c>
       <c r="C11" t="n">
-        <v>336.5954440373102</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="D11" t="n">
-        <v>256.3281827984632</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="E11" t="n">
-        <v>256.3281827984632</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="F11" t="n">
-        <v>256.3281827984632</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="G11" t="n">
-        <v>133.0460633301758</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="H11" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="I11" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J11" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K11" t="n">
-        <v>9.763943861888364</v>
+        <v>130.592749152757</v>
       </c>
       <c r="L11" t="n">
-        <v>58.16119434887575</v>
+        <v>178.9899996397444</v>
       </c>
       <c r="M11" t="n">
-        <v>149.3632652140773</v>
+        <v>299.818804930613</v>
       </c>
       <c r="N11" t="n">
-        <v>226.5866682055823</v>
+        <v>377.042207922118</v>
       </c>
       <c r="O11" t="n">
-        <v>262.5971791047626</v>
+        <v>413.0527188212983</v>
       </c>
       <c r="P11" t="n">
-        <v>383.4259843956311</v>
+        <v>413.0527188212983</v>
       </c>
       <c r="Q11" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="R11" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="S11" t="n">
-        <v>488.1971930944183</v>
+        <v>454.9749715372146</v>
       </c>
       <c r="T11" t="n">
-        <v>459.8775635055977</v>
+        <v>454.9749715372146</v>
       </c>
       <c r="U11" t="n">
-        <v>459.8775635055977</v>
+        <v>398.6444590282678</v>
       </c>
       <c r="V11" t="n">
-        <v>459.8775635055977</v>
+        <v>398.6444590282678</v>
       </c>
       <c r="W11" t="n">
-        <v>459.8775635055977</v>
+        <v>275.3623395599802</v>
       </c>
       <c r="X11" t="n">
-        <v>459.8775635055977</v>
+        <v>152.0802200916927</v>
       </c>
       <c r="Y11" t="n">
-        <v>459.8775635055977</v>
+        <v>152.0802200916927</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>75.2345289072415</v>
+        <v>128.6208059460712</v>
       </c>
       <c r="C12" t="n">
-        <v>75.2345289072415</v>
+        <v>128.6208059460712</v>
       </c>
       <c r="D12" t="n">
-        <v>75.2345289072415</v>
+        <v>128.6208059460712</v>
       </c>
       <c r="E12" t="n">
-        <v>75.2345289072415</v>
+        <v>128.6208059460712</v>
       </c>
       <c r="F12" t="n">
-        <v>9.763943861888364</v>
+        <v>128.6208059460712</v>
       </c>
       <c r="G12" t="n">
-        <v>9.763943861888364</v>
+        <v>62.22126207931485</v>
       </c>
       <c r="H12" t="n">
-        <v>9.763943861888364</v>
+        <v>62.22126207931485</v>
       </c>
       <c r="I12" t="n">
-        <v>9.763943861888364</v>
+        <v>62.22126207931485</v>
       </c>
       <c r="J12" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K12" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="L12" t="n">
-        <v>128.3309857893938</v>
+        <v>41.00029403282558</v>
       </c>
       <c r="M12" t="n">
-        <v>249.1597910802623</v>
+        <v>161.8290993236942</v>
       </c>
       <c r="N12" t="n">
-        <v>369.9885963711308</v>
+        <v>282.6579046145628</v>
       </c>
       <c r="O12" t="n">
-        <v>488.1971930944183</v>
+        <v>403.4867099054314</v>
       </c>
       <c r="P12" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="Q12" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="R12" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="S12" t="n">
-        <v>488.1971930944183</v>
+        <v>364.9150736261312</v>
       </c>
       <c r="T12" t="n">
-        <v>467.424156194693</v>
+        <v>344.1420367264059</v>
       </c>
       <c r="U12" t="n">
-        <v>424.146160127986</v>
+        <v>300.864040659699</v>
       </c>
       <c r="V12" t="n">
-        <v>300.8640406596986</v>
+        <v>254.1302575884388</v>
       </c>
       <c r="W12" t="n">
-        <v>227.8114064150956</v>
+        <v>181.0776233438358</v>
       </c>
       <c r="X12" t="n">
-        <v>104.5292869468082</v>
+        <v>157.9155639856378</v>
       </c>
       <c r="Y12" t="n">
-        <v>75.2345289072415</v>
+        <v>128.6208059460712</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="C13" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="D13" t="n">
-        <v>9.763943861888364</v>
+        <v>58.47177103179088</v>
       </c>
       <c r="E13" t="n">
-        <v>61.94321497989169</v>
+        <v>58.47177103179088</v>
       </c>
       <c r="F13" t="n">
-        <v>116.8442525017356</v>
+        <v>113.3728085536348</v>
       </c>
       <c r="G13" t="n">
-        <v>116.8442525017356</v>
+        <v>113.3728085536348</v>
       </c>
       <c r="H13" t="n">
-        <v>145.1591163986219</v>
+        <v>113.3728085536348</v>
       </c>
       <c r="I13" t="n">
-        <v>145.1591163986219</v>
+        <v>113.3728085536348</v>
       </c>
       <c r="J13" t="n">
-        <v>145.1591163986219</v>
+        <v>142.2332337721114</v>
       </c>
       <c r="K13" t="n">
-        <v>145.1591163986219</v>
+        <v>142.2332337721114</v>
       </c>
       <c r="L13" t="n">
-        <v>265.9879216894904</v>
+        <v>263.06203906298</v>
       </c>
       <c r="M13" t="n">
-        <v>265.9879216894904</v>
+        <v>263.06203906298</v>
       </c>
       <c r="N13" t="n">
-        <v>383.8908443538489</v>
+        <v>383.8908443538486</v>
       </c>
       <c r="O13" t="n">
-        <v>383.8908443538489</v>
+        <v>383.8908443538486</v>
       </c>
       <c r="P13" t="n">
-        <v>383.8908443538489</v>
+        <v>383.8908443538486</v>
       </c>
       <c r="Q13" t="n">
-        <v>383.8908443538489</v>
+        <v>383.8908443538486</v>
       </c>
       <c r="R13" t="n">
-        <v>374.9705796473634</v>
+        <v>374.9705796473632</v>
       </c>
       <c r="S13" t="n">
-        <v>333.5850382143203</v>
+        <v>333.5850382143201</v>
       </c>
       <c r="T13" t="n">
-        <v>303.9299706769514</v>
+        <v>303.9299706769513</v>
       </c>
       <c r="U13" t="n">
-        <v>208.7038911313608</v>
+        <v>208.7038911313607</v>
       </c>
       <c r="V13" t="n">
-        <v>157.4649623337898</v>
+        <v>157.4649623337897</v>
       </c>
       <c r="W13" t="n">
-        <v>60.56775888481938</v>
+        <v>60.56775888481934</v>
       </c>
       <c r="X13" t="n">
-        <v>32.75262784099321</v>
+        <v>32.7526278409932</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>331.6928520689268</v>
+        <v>247.0427099711597</v>
       </c>
       <c r="C14" t="n">
-        <v>331.6928520689268</v>
+        <v>247.0427099711597</v>
       </c>
       <c r="D14" t="n">
-        <v>256.3281827984632</v>
+        <v>247.0427099711597</v>
       </c>
       <c r="E14" t="n">
-        <v>256.3281827984632</v>
+        <v>123.7605905028721</v>
       </c>
       <c r="F14" t="n">
-        <v>133.0460633301758</v>
+        <v>123.7605905028721</v>
       </c>
       <c r="G14" t="n">
-        <v>9.763943861888364</v>
+        <v>123.7605905028721</v>
       </c>
       <c r="H14" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="I14" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J14" t="n">
-        <v>50.57844261887895</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K14" t="n">
-        <v>171.4072479097475</v>
+        <v>130.592749152757</v>
       </c>
       <c r="L14" t="n">
-        <v>292.236053200616</v>
+        <v>251.4215544436256</v>
       </c>
       <c r="M14" t="n">
-        <v>374.963279203733</v>
+        <v>334.1487804467426</v>
       </c>
       <c r="N14" t="n">
-        <v>452.1866821952379</v>
+        <v>411.3721834382476</v>
       </c>
       <c r="O14" t="n">
-        <v>488.1971930944183</v>
+        <v>488.0239675444187</v>
       </c>
       <c r="P14" t="n">
-        <v>488.1971930944183</v>
+        <v>488.0239675444187</v>
       </c>
       <c r="Q14" t="n">
-        <v>488.1971930944183</v>
+        <v>488.0239675444187</v>
       </c>
       <c r="R14" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="S14" t="n">
-        <v>454.9749715372142</v>
+        <v>454.9749715372146</v>
       </c>
       <c r="T14" t="n">
-        <v>454.9749715372142</v>
+        <v>426.655341948394</v>
       </c>
       <c r="U14" t="n">
-        <v>454.9749715372142</v>
+        <v>370.3248294394472</v>
       </c>
       <c r="V14" t="n">
-        <v>454.9749715372142</v>
+        <v>370.3248294394472</v>
       </c>
       <c r="W14" t="n">
-        <v>454.9749715372142</v>
+        <v>370.3248294394472</v>
       </c>
       <c r="X14" t="n">
-        <v>454.9749715372142</v>
+        <v>247.0427099711597</v>
       </c>
       <c r="Y14" t="n">
-        <v>454.9749715372142</v>
+        <v>247.0427099711597</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>133.0460633301758</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="C15" t="n">
-        <v>133.0460633301758</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="D15" t="n">
-        <v>133.0460633301758</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="E15" t="n">
-        <v>133.0460633301758</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="F15" t="n">
-        <v>133.0460633301758</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="G15" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="H15" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="I15" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J15" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K15" t="n">
-        <v>48.64509028167981</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="L15" t="n">
-        <v>167.2121322091853</v>
+        <v>128.3309857893938</v>
       </c>
       <c r="M15" t="n">
-        <v>282.6579046145625</v>
+        <v>249.1597910802624</v>
       </c>
       <c r="N15" t="n">
-        <v>403.486709905431</v>
+        <v>369.9885963711311</v>
       </c>
       <c r="O15" t="n">
-        <v>403.486709905431</v>
+        <v>403.4867099054314</v>
       </c>
       <c r="P15" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="Q15" t="n">
-        <v>488.1971930944183</v>
+        <v>481.9986212547565</v>
       </c>
       <c r="R15" t="n">
-        <v>488.1971930944183</v>
+        <v>369.3403310102358</v>
       </c>
       <c r="S15" t="n">
-        <v>488.1971930944183</v>
+        <v>246.0582115419483</v>
       </c>
       <c r="T15" t="n">
-        <v>467.424156194693</v>
+        <v>225.285174642223</v>
       </c>
       <c r="U15" t="n">
-        <v>405.409358153893</v>
+        <v>182.0071785755161</v>
       </c>
       <c r="V15" t="n">
-        <v>358.6755750826328</v>
+        <v>135.2733955042559</v>
       </c>
       <c r="W15" t="n">
-        <v>285.6229408380299</v>
+        <v>62.22076125965295</v>
       </c>
       <c r="X15" t="n">
-        <v>162.3408213697424</v>
+        <v>39.05870190145501</v>
       </c>
       <c r="Y15" t="n">
-        <v>133.0460633301758</v>
+        <v>9.763943861888375</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.36184332167608</v>
+        <v>26.36184332167607</v>
       </c>
       <c r="C16" t="n">
-        <v>26.36184332167608</v>
+        <v>54.00788507752954</v>
       </c>
       <c r="D16" t="n">
-        <v>75.06967049157861</v>
+        <v>102.715712247432</v>
       </c>
       <c r="E16" t="n">
-        <v>127.248941609582</v>
+        <v>138.4768086210833</v>
       </c>
       <c r="F16" t="n">
-        <v>127.248941609582</v>
+        <v>138.4768086210833</v>
       </c>
       <c r="G16" t="n">
-        <v>127.248941609582</v>
+        <v>138.4768086210833</v>
       </c>
       <c r="H16" t="n">
-        <v>155.5638055064684</v>
+        <v>166.7916725179696</v>
       </c>
       <c r="I16" t="n">
-        <v>155.5638055064684</v>
+        <v>196.1691865835814</v>
       </c>
       <c r="J16" t="n">
-        <v>155.5638055064684</v>
+        <v>196.1691865835814</v>
       </c>
       <c r="K16" t="n">
-        <v>276.3926107973369</v>
+        <v>196.1691865835814</v>
       </c>
       <c r="L16" t="n">
-        <v>276.3926107973369</v>
+        <v>196.1691865835814</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8908443538484</v>
+        <v>316.99799187445</v>
       </c>
       <c r="N16" t="n">
-        <v>383.8908443538484</v>
+        <v>316.99799187445</v>
       </c>
       <c r="O16" t="n">
-        <v>383.8908443538484</v>
+        <v>316.99799187445</v>
       </c>
       <c r="P16" t="n">
-        <v>383.8908443538484</v>
+        <v>316.99799187445</v>
       </c>
       <c r="Q16" t="n">
-        <v>383.8908443538484</v>
+        <v>383.8908443538486</v>
       </c>
       <c r="R16" t="n">
-        <v>374.970579647363</v>
+        <v>374.9705796473632</v>
       </c>
       <c r="S16" t="n">
-        <v>333.5850382143199</v>
+        <v>333.5850382143201</v>
       </c>
       <c r="T16" t="n">
-        <v>303.9299706769511</v>
+        <v>303.9299706769513</v>
       </c>
       <c r="U16" t="n">
-        <v>208.7038911313606</v>
+        <v>208.7038911313607</v>
       </c>
       <c r="V16" t="n">
-        <v>157.4649623337896</v>
+        <v>157.4649623337897</v>
       </c>
       <c r="W16" t="n">
-        <v>60.56775888481927</v>
+        <v>60.56775888481934</v>
       </c>
       <c r="X16" t="n">
-        <v>32.75262784099316</v>
+        <v>32.7526278409932</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>315.9417875589152</v>
+        <v>315.9417875589156</v>
       </c>
       <c r="C17" t="n">
-        <v>286.3198544558578</v>
+        <v>286.3198544558583</v>
       </c>
       <c r="D17" t="n">
-        <v>269.2568483618424</v>
+        <v>269.2568483618429</v>
       </c>
       <c r="E17" t="n">
-        <v>218.1466176017574</v>
+        <v>218.1466176017579</v>
       </c>
       <c r="F17" t="n">
-        <v>134.9956418130085</v>
+        <v>134.9956418130088</v>
       </c>
       <c r="G17" t="n">
-        <v>36.05861259151847</v>
+        <v>36.05861259151848</v>
       </c>
       <c r="H17" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="I17" t="n">
-        <v>76.33973727374146</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J17" t="n">
-        <v>76.33973727374146</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K17" t="n">
-        <v>76.33973727374146</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="L17" t="n">
-        <v>124.7369877607289</v>
+        <v>58.16119434887577</v>
       </c>
       <c r="M17" t="n">
-        <v>207.4642137638459</v>
+        <v>140.8884203519928</v>
       </c>
       <c r="N17" t="n">
-        <v>284.6876167553509</v>
+        <v>218.1118233434977</v>
       </c>
       <c r="O17" t="n">
-        <v>320.6981276545312</v>
+        <v>254.122334242678</v>
       </c>
       <c r="P17" t="n">
-        <v>320.6981276545312</v>
+        <v>254.122334242678</v>
       </c>
       <c r="Q17" t="n">
-        <v>320.6981276545312</v>
+        <v>254.122334242678</v>
       </c>
       <c r="R17" t="n">
-        <v>320.6981276545312</v>
+        <v>374.9511395335467</v>
       </c>
       <c r="S17" t="n">
-        <v>320.6981276545312</v>
+        <v>374.9511395335467</v>
       </c>
       <c r="T17" t="n">
-        <v>418.1743935494826</v>
+        <v>472.4274054284981</v>
       </c>
       <c r="U17" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="V17" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="W17" t="n">
-        <v>471.0086272190497</v>
+        <v>471.0086272190502</v>
       </c>
       <c r="X17" t="n">
-        <v>431.712737637682</v>
+        <v>431.7127376376824</v>
       </c>
       <c r="Y17" t="n">
-        <v>369.686693385866</v>
+        <v>369.6866933858664</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>133.0460633301758</v>
+        <v>358.7165017864689</v>
       </c>
       <c r="C18" t="n">
-        <v>133.0460633301758</v>
+        <v>358.7165017864689</v>
       </c>
       <c r="D18" t="n">
-        <v>133.0460633301758</v>
+        <v>358.7165017864689</v>
       </c>
       <c r="E18" t="n">
-        <v>133.0460633301758</v>
+        <v>358.7165017864689</v>
       </c>
       <c r="F18" t="n">
-        <v>9.763943861888364</v>
+        <v>235.4343823181814</v>
       </c>
       <c r="G18" t="n">
-        <v>9.763943861888364</v>
+        <v>133.0460633301759</v>
       </c>
       <c r="H18" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="I18" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J18" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K18" t="n">
-        <v>48.64509028167981</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="L18" t="n">
-        <v>48.64509028167981</v>
+        <v>41.00029403282558</v>
       </c>
       <c r="M18" t="n">
-        <v>169.4738955725483</v>
+        <v>161.8290993236942</v>
       </c>
       <c r="N18" t="n">
-        <v>290.3027008634168</v>
+        <v>282.6579046145628</v>
       </c>
       <c r="O18" t="n">
-        <v>411.1315061542853</v>
+        <v>403.4867099054314</v>
       </c>
       <c r="P18" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="Q18" t="n">
-        <v>488.1971930944183</v>
+        <v>481.9986212547565</v>
       </c>
       <c r="R18" t="n">
-        <v>379.6103022667506</v>
+        <v>481.9986212547565</v>
       </c>
       <c r="S18" t="n">
-        <v>379.6103022667506</v>
+        <v>358.7165017864689</v>
       </c>
       <c r="T18" t="n">
-        <v>379.6103022667506</v>
+        <v>358.7165017864689</v>
       </c>
       <c r="U18" t="n">
-        <v>379.6103022667506</v>
+        <v>358.7165017864689</v>
       </c>
       <c r="V18" t="n">
-        <v>379.6103022667506</v>
+        <v>358.7165017864689</v>
       </c>
       <c r="W18" t="n">
-        <v>379.6103022667506</v>
+        <v>358.7165017864689</v>
       </c>
       <c r="X18" t="n">
-        <v>256.3281827984632</v>
+        <v>358.7165017864689</v>
       </c>
       <c r="Y18" t="n">
-        <v>133.0460633301758</v>
+        <v>358.7165017864689</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="C19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="D19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="E19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="F19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="G19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="H19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="I19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="L19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="M19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="N19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="O19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="P19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="R19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="S19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="T19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="U19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="V19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="W19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="X19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>315.9417875589146</v>
+        <v>315.9417875589152</v>
       </c>
       <c r="C20" t="n">
-        <v>286.319854455857</v>
+        <v>286.3198544558577</v>
       </c>
       <c r="D20" t="n">
-        <v>269.2568483618415</v>
+        <v>269.2568483618425</v>
       </c>
       <c r="E20" t="n">
-        <v>218.1466176017566</v>
+        <v>218.1466176017573</v>
       </c>
       <c r="F20" t="n">
-        <v>134.9956418130073</v>
+        <v>134.9956418130082</v>
       </c>
       <c r="G20" t="n">
-        <v>36.05861259151852</v>
+        <v>36.05861259151865</v>
       </c>
       <c r="H20" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="I20" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J20" t="n">
-        <v>9.763943861888364</v>
+        <v>130.592749152757</v>
       </c>
       <c r="K20" t="n">
-        <v>9.763943861888364</v>
+        <v>130.592749152757</v>
       </c>
       <c r="L20" t="n">
-        <v>58.16119434887575</v>
+        <v>178.9899996397444</v>
       </c>
       <c r="M20" t="n">
-        <v>178.9899996397443</v>
+        <v>261.7172256428614</v>
       </c>
       <c r="N20" t="n">
-        <v>256.2134026312493</v>
+        <v>338.9406286343664</v>
       </c>
       <c r="O20" t="n">
-        <v>292.2239135304296</v>
+        <v>374.9511395335467</v>
       </c>
       <c r="P20" t="n">
-        <v>292.2239135304296</v>
+        <v>374.9511395335467</v>
       </c>
       <c r="Q20" t="n">
-        <v>413.0527188212981</v>
+        <v>374.9511395335467</v>
       </c>
       <c r="R20" t="n">
-        <v>418.1743935494827</v>
+        <v>374.9511395335467</v>
       </c>
       <c r="S20" t="n">
-        <v>418.1743935494827</v>
+        <v>418.1743935494832</v>
       </c>
       <c r="T20" t="n">
-        <v>418.1743935494827</v>
+        <v>418.1743935494832</v>
       </c>
       <c r="U20" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="V20" t="n">
-        <v>488.1971930944178</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="W20" t="n">
-        <v>471.0086272190492</v>
+        <v>471.0086272190503</v>
       </c>
       <c r="X20" t="n">
-        <v>431.7127376376816</v>
+        <v>431.7127376376824</v>
       </c>
       <c r="Y20" t="n">
-        <v>369.6866933858655</v>
+        <v>369.6866933858662</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>133.0460633301758</v>
+        <v>364.9150736261312</v>
       </c>
       <c r="C21" t="n">
-        <v>9.763943861888364</v>
+        <v>364.9150736261312</v>
       </c>
       <c r="D21" t="n">
-        <v>9.763943861888364</v>
+        <v>364.5764039840403</v>
       </c>
       <c r="E21" t="n">
-        <v>9.763943861888364</v>
+        <v>364.5764039840403</v>
       </c>
       <c r="F21" t="n">
-        <v>9.763943861888364</v>
+        <v>241.2942845157528</v>
       </c>
       <c r="G21" t="n">
-        <v>9.763943861888364</v>
+        <v>241.2942845157528</v>
       </c>
       <c r="H21" t="n">
-        <v>9.763943861888364</v>
+        <v>118.0121650474652</v>
       </c>
       <c r="I21" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J21" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K21" t="n">
-        <v>48.64509028167981</v>
+        <v>48.64509028167983</v>
       </c>
       <c r="L21" t="n">
-        <v>48.64509028167981</v>
+        <v>167.2121322091853</v>
       </c>
       <c r="M21" t="n">
-        <v>169.4738955725483</v>
+        <v>288.0409375000539</v>
       </c>
       <c r="N21" t="n">
-        <v>282.6579046145625</v>
+        <v>288.0409375000539</v>
       </c>
       <c r="O21" t="n">
-        <v>403.486709905431</v>
+        <v>403.4867099054314</v>
       </c>
       <c r="P21" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="Q21" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="R21" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="S21" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="T21" t="n">
-        <v>364.9150736261308</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="U21" t="n">
-        <v>364.9150736261308</v>
+        <v>364.9150736261312</v>
       </c>
       <c r="V21" t="n">
-        <v>256.3281827984632</v>
+        <v>364.9150736261312</v>
       </c>
       <c r="W21" t="n">
-        <v>256.3281827984632</v>
+        <v>364.9150736261312</v>
       </c>
       <c r="X21" t="n">
-        <v>256.3281827984632</v>
+        <v>364.9150736261312</v>
       </c>
       <c r="Y21" t="n">
-        <v>256.3281827984632</v>
+        <v>364.9150736261312</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="C22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="D22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="E22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="F22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="G22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="H22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="I22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="L22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="M22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="N22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="O22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="P22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="R22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="S22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="T22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="U22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="V22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="W22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="X22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>315.9417875589152</v>
+        <v>315.9417875589153</v>
       </c>
       <c r="C23" t="n">
-        <v>286.3198544558579</v>
+        <v>286.3198544558576</v>
       </c>
       <c r="D23" t="n">
-        <v>269.2568483618424</v>
+        <v>269.2568483618422</v>
       </c>
       <c r="E23" t="n">
-        <v>218.1466176017573</v>
+        <v>218.146617601757</v>
       </c>
       <c r="F23" t="n">
-        <v>134.9956418130083</v>
+        <v>134.9956418130081</v>
       </c>
       <c r="G23" t="n">
-        <v>36.05861259151852</v>
+        <v>36.05861259151866</v>
       </c>
       <c r="H23" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888391</v>
       </c>
       <c r="I23" t="n">
-        <v>9.763943861888372</v>
+        <v>89.24480594465233</v>
       </c>
       <c r="J23" t="n">
-        <v>9.763943861888372</v>
+        <v>89.24480594465233</v>
       </c>
       <c r="K23" t="n">
-        <v>9.763943861888372</v>
+        <v>89.24480594465233</v>
       </c>
       <c r="L23" t="n">
-        <v>58.16119434887576</v>
+        <v>137.6420564316397</v>
       </c>
       <c r="M23" t="n">
-        <v>140.8884203519928</v>
+        <v>220.3692824347567</v>
       </c>
       <c r="N23" t="n">
-        <v>261.7172256428614</v>
+        <v>297.5926854262617</v>
       </c>
       <c r="O23" t="n">
-        <v>297.7277365420417</v>
+        <v>418.1743935494841</v>
       </c>
       <c r="P23" t="n">
-        <v>297.7277365420417</v>
+        <v>418.1743935494841</v>
       </c>
       <c r="Q23" t="n">
-        <v>297.7277365420417</v>
+        <v>418.1743935494841</v>
       </c>
       <c r="R23" t="n">
-        <v>297.7277365420417</v>
+        <v>418.1743935494841</v>
       </c>
       <c r="S23" t="n">
-        <v>320.6981276545316</v>
+        <v>418.1743935494841</v>
       </c>
       <c r="T23" t="n">
-        <v>418.1743935494829</v>
+        <v>418.1743935494841</v>
       </c>
       <c r="U23" t="n">
-        <v>488.1971930944185</v>
+        <v>488.1971930944196</v>
       </c>
       <c r="V23" t="n">
-        <v>488.1971930944185</v>
+        <v>488.1971930944191</v>
       </c>
       <c r="W23" t="n">
-        <v>471.0086272190499</v>
+        <v>471.0086272190503</v>
       </c>
       <c r="X23" t="n">
-        <v>431.7127376376821</v>
+        <v>431.7127376376826</v>
       </c>
       <c r="Y23" t="n">
-        <v>369.686693385866</v>
+        <v>369.6866933858663</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>133.0460633301759</v>
+        <v>241.632954157844</v>
       </c>
       <c r="C24" t="n">
-        <v>9.763943861888372</v>
+        <v>133.0460633301762</v>
       </c>
       <c r="D24" t="n">
-        <v>9.763943861888372</v>
+        <v>133.0460633301762</v>
       </c>
       <c r="E24" t="n">
-        <v>9.763943861888372</v>
+        <v>133.0460633301762</v>
       </c>
       <c r="F24" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888391</v>
       </c>
       <c r="G24" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888391</v>
       </c>
       <c r="H24" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888391</v>
       </c>
       <c r="I24" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888391</v>
       </c>
       <c r="J24" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888391</v>
       </c>
       <c r="K24" t="n">
-        <v>48.64509028167982</v>
+        <v>48.64509028167984</v>
       </c>
       <c r="L24" t="n">
         <v>167.2121322091853</v>
       </c>
       <c r="M24" t="n">
-        <v>288.0409375000538</v>
+        <v>288.0409375000541</v>
       </c>
       <c r="N24" t="n">
-        <v>403.4867099054313</v>
+        <v>367.3683878035507</v>
       </c>
       <c r="O24" t="n">
-        <v>403.4867099054313</v>
+        <v>488.1971930944196</v>
       </c>
       <c r="P24" t="n">
-        <v>488.1971930944185</v>
+        <v>488.1971930944196</v>
       </c>
       <c r="Q24" t="n">
-        <v>488.1971930944185</v>
+        <v>488.1971930944196</v>
       </c>
       <c r="R24" t="n">
-        <v>364.915073626131</v>
+        <v>488.1971930944196</v>
       </c>
       <c r="S24" t="n">
-        <v>364.915073626131</v>
+        <v>364.9150736261318</v>
       </c>
       <c r="T24" t="n">
-        <v>364.915073626131</v>
+        <v>241.632954157844</v>
       </c>
       <c r="U24" t="n">
-        <v>241.6329541578435</v>
+        <v>241.632954157844</v>
       </c>
       <c r="V24" t="n">
-        <v>133.0460633301759</v>
+        <v>241.632954157844</v>
       </c>
       <c r="W24" t="n">
-        <v>133.0460633301759</v>
+        <v>241.632954157844</v>
       </c>
       <c r="X24" t="n">
-        <v>133.0460633301759</v>
+        <v>241.632954157844</v>
       </c>
       <c r="Y24" t="n">
-        <v>133.0460633301759</v>
+        <v>241.632954157844</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888391</v>
       </c>
       <c r="C25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888391</v>
       </c>
       <c r="D25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888391</v>
       </c>
       <c r="E25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888391</v>
       </c>
       <c r="F25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888391</v>
       </c>
       <c r="G25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888391</v>
       </c>
       <c r="H25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888391</v>
       </c>
       <c r="I25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888391</v>
       </c>
       <c r="J25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888391</v>
       </c>
       <c r="K25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888391</v>
       </c>
       <c r="L25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888391</v>
       </c>
       <c r="M25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888391</v>
       </c>
       <c r="N25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888391</v>
       </c>
       <c r="O25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888391</v>
       </c>
       <c r="P25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888391</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888391</v>
       </c>
       <c r="R25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888391</v>
       </c>
       <c r="S25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888391</v>
       </c>
       <c r="T25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888391</v>
       </c>
       <c r="U25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888391</v>
       </c>
       <c r="V25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888391</v>
       </c>
       <c r="W25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888391</v>
       </c>
       <c r="X25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888391</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.763943861888372</v>
+        <v>9.763943861888391</v>
       </c>
     </row>
     <row r="26">
@@ -6200,49 +6200,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1024.530470300263</v>
+        <v>1024.530470300262</v>
       </c>
       <c r="C26" t="n">
-        <v>885.8553792567893</v>
+        <v>885.855379256789</v>
       </c>
       <c r="D26" t="n">
-        <v>759.7392152223579</v>
+        <v>759.7392152223576</v>
       </c>
       <c r="E26" t="n">
-        <v>599.5758265218569</v>
+        <v>599.5758265218567</v>
       </c>
       <c r="F26" t="n">
-        <v>407.371692792692</v>
+        <v>407.3716927926918</v>
       </c>
       <c r="G26" t="n">
-        <v>199.3815056307868</v>
+        <v>199.3815056307866</v>
       </c>
       <c r="H26" t="n">
-        <v>64.03367896074073</v>
+        <v>64.03367896074069</v>
       </c>
       <c r="I26" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="J26" t="n">
-        <v>171.7509734792158</v>
+        <v>171.7509734792162</v>
       </c>
       <c r="K26" t="n">
-        <v>377.2303396281792</v>
+        <v>377.2303396281796</v>
       </c>
       <c r="L26" t="n">
-        <v>636.4155757908254</v>
+        <v>636.4155757908259</v>
       </c>
       <c r="M26" t="n">
-        <v>929.9307874696012</v>
+        <v>929.9307874696017</v>
       </c>
       <c r="N26" t="n">
-        <v>1217.942176136765</v>
+        <v>1217.942176136766</v>
       </c>
       <c r="O26" t="n">
-        <v>1464.740672711604</v>
+        <v>1464.740672711605</v>
       </c>
       <c r="P26" t="n">
-        <v>1662.115223691694</v>
+        <v>1662.115223691695</v>
       </c>
       <c r="Q26" t="n">
         <v>1785.235767148035</v>
@@ -6254,13 +6254,13 @@
         <v>1789.25800647746</v>
       </c>
       <c r="T26" t="n">
-        <v>1779.660277467715</v>
+        <v>1779.660277467716</v>
       </c>
       <c r="U26" t="n">
-        <v>1742.051665537846</v>
+        <v>1742.051665537845</v>
       </c>
       <c r="V26" t="n">
-        <v>1632.99850759743</v>
+        <v>1632.998507597429</v>
       </c>
       <c r="W26" t="n">
         <v>1506.756783781645</v>
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>68.15279273292447</v>
+        <v>268.3381484313896</v>
       </c>
       <c r="C27" t="n">
-        <v>36.07516654911175</v>
+        <v>209.6383704276973</v>
       </c>
       <c r="D27" t="n">
-        <v>36.07516654911175</v>
+        <v>209.6383704276973</v>
       </c>
       <c r="E27" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="F27" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="G27" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="H27" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="I27" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="J27" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="K27" t="n">
         <v>74.95631296890321</v>
@@ -6330,25 +6330,25 @@
         <v>800.7871810738254</v>
       </c>
       <c r="S27" t="n">
-        <v>800.7871810738254</v>
+        <v>607.3688482411733</v>
       </c>
       <c r="T27" t="n">
-        <v>798.7360447531765</v>
+        <v>605.3177119205244</v>
       </c>
       <c r="U27" t="n">
-        <v>774.179949265546</v>
+        <v>580.7616164328939</v>
       </c>
       <c r="V27" t="n">
-        <v>531.1002311691801</v>
+        <v>337.681898336528</v>
       </c>
       <c r="W27" t="n">
-        <v>261.7016618994714</v>
+        <v>283.3511646710014</v>
       </c>
       <c r="X27" t="n">
-        <v>257.2615031203499</v>
+        <v>278.9110058918799</v>
       </c>
       <c r="Y27" t="n">
-        <v>246.6886456598596</v>
+        <v>268.3381484313896</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="C28" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="D28" t="n">
-        <v>36.07516654911175</v>
+        <v>103.132328476567</v>
       </c>
       <c r="E28" t="n">
-        <v>36.07516654911175</v>
+        <v>103.132328476567</v>
       </c>
       <c r="F28" t="n">
-        <v>36.07516654911175</v>
+        <v>103.132328476567</v>
       </c>
       <c r="G28" t="n">
-        <v>79.85415021279864</v>
+        <v>146.911312140254</v>
       </c>
       <c r="H28" t="n">
-        <v>79.85415021279864</v>
+        <v>146.911312140254</v>
       </c>
       <c r="I28" t="n">
-        <v>79.85415021279864</v>
+        <v>178.1408268827054</v>
       </c>
       <c r="J28" t="n">
-        <v>79.85415021279864</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="K28" t="n">
-        <v>79.85415021279864</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="L28" t="n">
-        <v>259.5202880143606</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="M28" t="n">
-        <v>259.5202880143606</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="N28" t="n">
-        <v>270.2284982810522</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="O28" t="n">
-        <v>270.2284982810522</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="P28" t="n">
-        <v>270.2284982810522</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.2284982810522</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="R28" t="n">
-        <v>270.2284982810522</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="S28" t="n">
-        <v>247.5648574270854</v>
+        <v>247.5648574270851</v>
       </c>
       <c r="T28" t="n">
-        <v>236.631690468793</v>
+        <v>236.6316904687927</v>
       </c>
       <c r="U28" t="n">
-        <v>160.1275115022787</v>
+        <v>160.1275115022785</v>
       </c>
       <c r="V28" t="n">
-        <v>127.6104832837841</v>
+        <v>127.6104832837839</v>
       </c>
       <c r="W28" t="n">
-        <v>49.43518041389002</v>
+        <v>49.43518041388991</v>
       </c>
       <c r="X28" t="n">
-        <v>40.34194994914022</v>
+        <v>40.34194994914017</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
     </row>
     <row r="29">
@@ -6455,13 +6455,13 @@
         <v>199.3815056307867</v>
       </c>
       <c r="H29" t="n">
-        <v>64.0336789607401</v>
+        <v>64.03367896074064</v>
       </c>
       <c r="I29" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="J29" t="n">
-        <v>171.7509734792163</v>
+        <v>171.7509734792166</v>
       </c>
       <c r="K29" t="n">
         <v>377.23033962818</v>
@@ -6491,7 +6491,7 @@
         <v>1789.25800647746</v>
       </c>
       <c r="T29" t="n">
-        <v>1779.660277467715</v>
+        <v>1779.660277467716</v>
       </c>
       <c r="U29" t="n">
         <v>1742.051665537845</v>
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>196.85528278808</v>
+        <v>461.7564812640417</v>
       </c>
       <c r="C30" t="n">
-        <v>196.85528278808</v>
+        <v>461.7564812640417</v>
       </c>
       <c r="D30" t="n">
-        <v>36.07516654911175</v>
+        <v>461.7564812640417</v>
       </c>
       <c r="E30" t="n">
-        <v>36.07516654911175</v>
+        <v>288.1932773854562</v>
       </c>
       <c r="F30" t="n">
-        <v>36.07516654911175</v>
+        <v>288.1932773854562</v>
       </c>
       <c r="G30" t="n">
-        <v>36.07516654911175</v>
+        <v>163.024738142884</v>
       </c>
       <c r="H30" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="I30" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="J30" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="K30" t="n">
         <v>74.95631296890321</v>
@@ -6573,19 +6573,19 @@
         <v>798.7360447531765</v>
       </c>
       <c r="U30" t="n">
-        <v>559.112113661364</v>
+        <v>774.179949265546</v>
       </c>
       <c r="V30" t="n">
-        <v>481.2668682974005</v>
+        <v>746.1680667733623</v>
       </c>
       <c r="W30" t="n">
-        <v>426.9361346318739</v>
+        <v>691.8373331078357</v>
       </c>
       <c r="X30" t="n">
-        <v>422.4959758527523</v>
+        <v>687.3971743287141</v>
       </c>
       <c r="Y30" t="n">
-        <v>196.85528278808</v>
+        <v>461.7564812640417</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="C31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="D31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="E31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="F31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="G31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="H31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="I31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="J31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="K31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="L31" t="n">
-        <v>215.7413043506737</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="M31" t="n">
-        <v>215.7413043506737</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="N31" t="n">
-        <v>270.228498281052</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="O31" t="n">
-        <v>270.228498281052</v>
+        <v>210.4325916083658</v>
       </c>
       <c r="P31" t="n">
-        <v>270.228498281052</v>
+        <v>210.4325916083658</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.228498281052</v>
+        <v>260.6219149623253</v>
       </c>
       <c r="R31" t="n">
-        <v>270.228498281052</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="S31" t="n">
-        <v>247.5648574270852</v>
+        <v>247.5648574270851</v>
       </c>
       <c r="T31" t="n">
-        <v>236.6316904687928</v>
+        <v>236.6316904687927</v>
       </c>
       <c r="U31" t="n">
-        <v>160.1275115022786</v>
+        <v>160.1275115022785</v>
       </c>
       <c r="V31" t="n">
-        <v>127.610483283784</v>
+        <v>127.6104832837839</v>
       </c>
       <c r="W31" t="n">
-        <v>49.43518041388997</v>
+        <v>49.43518041388991</v>
       </c>
       <c r="X31" t="n">
-        <v>40.34194994914019</v>
+        <v>40.34194994914017</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
     </row>
     <row r="32">
@@ -6677,34 +6677,34 @@
         <v>1024.530470300262</v>
       </c>
       <c r="C32" t="n">
-        <v>885.8553792567888</v>
+        <v>885.855379256789</v>
       </c>
       <c r="D32" t="n">
-        <v>759.7392152223574</v>
+        <v>759.7392152223576</v>
       </c>
       <c r="E32" t="n">
-        <v>599.5758265218565</v>
+        <v>599.5758265218567</v>
       </c>
       <c r="F32" t="n">
-        <v>407.3716927926915</v>
+        <v>407.3716927926919</v>
       </c>
       <c r="G32" t="n">
-        <v>199.3815056307864</v>
+        <v>199.3815056307867</v>
       </c>
       <c r="H32" t="n">
-        <v>64.03367896074073</v>
+        <v>64.03367896074066</v>
       </c>
       <c r="I32" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="J32" t="n">
-        <v>171.7509734792164</v>
+        <v>171.7509734792161</v>
       </c>
       <c r="K32" t="n">
-        <v>377.2303396281799</v>
+        <v>377.2303396281796</v>
       </c>
       <c r="L32" t="n">
-        <v>636.4155757908261</v>
+        <v>636.415575790826</v>
       </c>
       <c r="M32" t="n">
         <v>929.9307874696019</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>36.07516654911175</v>
+        <v>246.6886456598597</v>
       </c>
       <c r="C33" t="n">
-        <v>36.07516654911175</v>
+        <v>246.6886456598597</v>
       </c>
       <c r="D33" t="n">
-        <v>36.07516654911175</v>
+        <v>246.6886456598597</v>
       </c>
       <c r="E33" t="n">
-        <v>36.07516654911175</v>
+        <v>73.12544178127419</v>
       </c>
       <c r="F33" t="n">
-        <v>36.07516654911175</v>
+        <v>73.12544178127419</v>
       </c>
       <c r="G33" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="H33" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="I33" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="J33" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="K33" t="n">
-        <v>74.95631296890321</v>
+        <v>74.95631296890323</v>
       </c>
       <c r="L33" t="n">
-        <v>193.5233548964086</v>
+        <v>193.5233548964087</v>
       </c>
       <c r="M33" t="n">
-        <v>376.6401645971885</v>
+        <v>376.6401645971886</v>
       </c>
       <c r="N33" t="n">
-        <v>583.0234209365547</v>
+        <v>583.0234209365548</v>
       </c>
       <c r="O33" t="n">
-        <v>716.0766978848382</v>
+        <v>716.0766978848383</v>
       </c>
       <c r="P33" t="n">
-        <v>800.7871810738254</v>
+        <v>800.7871810738255</v>
       </c>
       <c r="Q33" t="n">
-        <v>800.7871810738254</v>
+        <v>800.7871810738255</v>
       </c>
       <c r="R33" t="n">
-        <v>800.7871810738254</v>
+        <v>800.7871810738255</v>
       </c>
       <c r="S33" t="n">
-        <v>800.7871810738254</v>
+        <v>800.7871810738255</v>
       </c>
       <c r="T33" t="n">
-        <v>588.1225656424288</v>
+        <v>583.6682091489945</v>
       </c>
       <c r="U33" t="n">
-        <v>563.5664701547983</v>
+        <v>559.112113661364</v>
       </c>
       <c r="V33" t="n">
-        <v>320.4867520584323</v>
+        <v>316.0323955649981</v>
       </c>
       <c r="W33" t="n">
-        <v>266.1560183929057</v>
+        <v>261.7016618994715</v>
       </c>
       <c r="X33" t="n">
-        <v>46.64802400960204</v>
+        <v>257.26150312035</v>
       </c>
       <c r="Y33" t="n">
-        <v>36.07516654911175</v>
+        <v>246.6886456598597</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="C34" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="D34" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="E34" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="F34" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="G34" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="H34" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="I34" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="J34" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="K34" t="n">
-        <v>36.07516654911175</v>
+        <v>75.06626805783196</v>
       </c>
       <c r="L34" t="n">
-        <v>116.7580003597895</v>
+        <v>75.06626805783196</v>
       </c>
       <c r="M34" t="n">
-        <v>116.7580003597895</v>
+        <v>75.06626805783196</v>
       </c>
       <c r="N34" t="n">
-        <v>116.7580003597895</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="O34" t="n">
-        <v>116.7580003597895</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="P34" t="n">
-        <v>270.2284982810522</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.2284982810522</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="R34" t="n">
-        <v>270.2284982810522</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="S34" t="n">
-        <v>247.5648574270854</v>
+        <v>247.5648574270851</v>
       </c>
       <c r="T34" t="n">
-        <v>236.631690468793</v>
+        <v>236.6316904687927</v>
       </c>
       <c r="U34" t="n">
-        <v>160.1275115022787</v>
+        <v>160.1275115022785</v>
       </c>
       <c r="V34" t="n">
-        <v>127.6104832837841</v>
+        <v>127.6104832837839</v>
       </c>
       <c r="W34" t="n">
-        <v>49.43518041389002</v>
+        <v>49.43518041388991</v>
       </c>
       <c r="X34" t="n">
-        <v>40.34194994914022</v>
+        <v>40.34194994914017</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911176</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>773.6196706102301</v>
+        <v>773.6196706102305</v>
       </c>
       <c r="C35" t="n">
-        <v>670.4759701361758</v>
+        <v>670.4759701361761</v>
       </c>
       <c r="D35" t="n">
-        <v>579.8911966711635</v>
+        <v>579.8911966711638</v>
       </c>
       <c r="E35" t="n">
-        <v>455.2591985400816</v>
+        <v>455.259198540082</v>
       </c>
       <c r="F35" t="n">
-        <v>298.5864553803358</v>
+        <v>298.5864553803362</v>
       </c>
       <c r="G35" t="n">
-        <v>126.1276587878504</v>
+        <v>126.1276587878503</v>
       </c>
       <c r="H35" t="n">
         <v>26.31122268722338</v>
@@ -6935,34 +6935,34 @@
         <v>26.31122268722338</v>
       </c>
       <c r="J35" t="n">
-        <v>26.31122268722338</v>
+        <v>196.8113455144154</v>
       </c>
       <c r="K35" t="n">
-        <v>266.6149047332744</v>
+        <v>196.8113455144154</v>
       </c>
       <c r="L35" t="n">
-        <v>452.556127483496</v>
+        <v>352.8845382651082</v>
       </c>
       <c r="M35" t="n">
-        <v>778.1575082378854</v>
+        <v>678.4859190194975</v>
       </c>
       <c r="N35" t="n">
-        <v>1100.993212802137</v>
+        <v>1001.321623583749</v>
       </c>
       <c r="O35" t="n">
-        <v>1137.003723701317</v>
+        <v>1037.332134482929</v>
       </c>
       <c r="P35" t="n">
-        <v>1137.003723701317</v>
+        <v>1269.531001360107</v>
       </c>
       <c r="Q35" t="n">
-        <v>1294.948583054745</v>
+        <v>1269.531001360107</v>
       </c>
       <c r="R35" t="n">
-        <v>1294.948583054745</v>
+        <v>1269.531001360107</v>
       </c>
       <c r="S35" t="n">
-        <v>1315.561134361169</v>
+        <v>1290.143552666532</v>
       </c>
       <c r="T35" t="n">
         <v>1315.561134361169</v>
@@ -6974,13 +6974,13 @@
         <v>1239.962145629721</v>
       </c>
       <c r="W35" t="n">
-        <v>1149.251812383355</v>
+        <v>1149.251812383356</v>
       </c>
       <c r="X35" t="n">
         <v>1036.434155430991</v>
       </c>
       <c r="Y35" t="n">
-        <v>900.8863438081778</v>
+        <v>900.8863438081781</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>546.5832010511572</v>
+        <v>303.5034829547914</v>
       </c>
       <c r="C36" t="n">
-        <v>521.0822590875331</v>
+        <v>303.5034829547914</v>
       </c>
       <c r="D36" t="n">
-        <v>360.3021428485648</v>
+        <v>303.5034829547914</v>
       </c>
       <c r="E36" t="n">
-        <v>186.7389389699793</v>
+        <v>134.5594438728002</v>
       </c>
       <c r="F36" t="n">
-        <v>26.31122268722338</v>
+        <v>134.5594438728002</v>
       </c>
       <c r="G36" t="n">
-        <v>26.31122268722338</v>
+        <v>134.5594438728002</v>
       </c>
       <c r="H36" t="n">
-        <v>26.31122268722338</v>
+        <v>134.5594438728002</v>
       </c>
       <c r="I36" t="n">
         <v>26.31122268722338</v>
@@ -7017,49 +7017,49 @@
         <v>26.31122268722338</v>
       </c>
       <c r="K36" t="n">
-        <v>65.19236910701483</v>
+        <v>65.19236910701487</v>
       </c>
       <c r="L36" t="n">
         <v>183.7594110345203</v>
       </c>
       <c r="M36" t="n">
-        <v>366.8762207353001</v>
+        <v>366.8762207353002</v>
       </c>
       <c r="N36" t="n">
-        <v>573.2594770746663</v>
+        <v>573.2594770746664</v>
       </c>
       <c r="O36" t="n">
-        <v>706.3127540229498</v>
+        <v>706.3127540229499</v>
       </c>
       <c r="P36" t="n">
-        <v>791.023237211937</v>
+        <v>791.0232372119372</v>
       </c>
       <c r="Q36" t="n">
-        <v>791.023237211937</v>
+        <v>791.0232372119372</v>
       </c>
       <c r="R36" t="n">
-        <v>791.023237211937</v>
+        <v>791.0232372119372</v>
       </c>
       <c r="S36" t="n">
-        <v>791.023237211937</v>
+        <v>791.0232372119372</v>
       </c>
       <c r="T36" t="n">
-        <v>791.023237211937</v>
+        <v>791.0232372119372</v>
       </c>
       <c r="U36" t="n">
-        <v>791.023237211937</v>
+        <v>791.0232372119372</v>
       </c>
       <c r="V36" t="n">
-        <v>791.023237211937</v>
+        <v>547.9435191155712</v>
       </c>
       <c r="W36" t="n">
-        <v>772.2238941158295</v>
+        <v>529.1441760194638</v>
       </c>
       <c r="X36" t="n">
-        <v>772.2238941158295</v>
+        <v>529.1441760194638</v>
       </c>
       <c r="Y36" t="n">
-        <v>546.5832010511572</v>
+        <v>303.5034829547914</v>
       </c>
     </row>
     <row r="37">
@@ -7087,49 +7087,49 @@
         <v>26.31122268722338</v>
       </c>
       <c r="H37" t="n">
-        <v>107.7997372387501</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="I37" t="n">
-        <v>107.7997372387501</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="J37" t="n">
-        <v>107.7997372387501</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="K37" t="n">
-        <v>107.7997372387501</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="L37" t="n">
-        <v>107.7997372387501</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="M37" t="n">
-        <v>107.7997372387501</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="N37" t="n">
-        <v>107.7997372387501</v>
+        <v>106.9735468446523</v>
       </c>
       <c r="O37" t="n">
-        <v>107.7997372387501</v>
+        <v>106.9735468446523</v>
       </c>
       <c r="P37" t="n">
-        <v>107.7997372387501</v>
+        <v>106.9735468446523</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.7997372387501</v>
+        <v>106.9735468446523</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9279233847935</v>
+        <v>106.9735468446523</v>
       </c>
       <c r="S37" t="n">
-        <v>109.9279233847935</v>
+        <v>106.9735468446523</v>
       </c>
       <c r="T37" t="n">
-        <v>109.9279233847935</v>
+        <v>106.9735468446523</v>
       </c>
       <c r="U37" t="n">
-        <v>68.95513498769833</v>
+        <v>66.0007584475572</v>
       </c>
       <c r="V37" t="n">
-        <v>68.95513498769833</v>
+        <v>68.9551349876983</v>
       </c>
       <c r="W37" t="n">
         <v>26.31122268722338</v>
@@ -7148,55 +7148,55 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>773.6196706102305</v>
+        <v>773.6196706102304</v>
       </c>
       <c r="C38" t="n">
-        <v>670.4759701361763</v>
+        <v>670.4759701361762</v>
       </c>
       <c r="D38" t="n">
-        <v>579.891196671164</v>
+        <v>579.8911966711639</v>
       </c>
       <c r="E38" t="n">
-        <v>455.2591985400822</v>
+        <v>455.2591985400821</v>
       </c>
       <c r="F38" t="n">
-        <v>298.5864553803364</v>
+        <v>298.5864553803363</v>
       </c>
       <c r="G38" t="n">
-        <v>126.1276587878504</v>
+        <v>126.1276587878503</v>
       </c>
       <c r="H38" t="n">
         <v>26.31122268722338</v>
       </c>
       <c r="I38" t="n">
-        <v>26.31122268722338</v>
+        <v>33.73340056967351</v>
       </c>
       <c r="J38" t="n">
-        <v>26.31122268722338</v>
+        <v>33.73340056967351</v>
       </c>
       <c r="K38" t="n">
-        <v>258.3395281843365</v>
+        <v>237.7269768779113</v>
       </c>
       <c r="L38" t="n">
-        <v>306.7367786713239</v>
+        <v>531.7365289376453</v>
       </c>
       <c r="M38" t="n">
-        <v>632.3381594257132</v>
+        <v>857.3379096920346</v>
       </c>
       <c r="N38" t="n">
-        <v>955.1738639899646</v>
+        <v>1180.173614256286</v>
       </c>
       <c r="O38" t="n">
-        <v>1236.796676461891</v>
+        <v>1216.184125155467</v>
       </c>
       <c r="P38" t="n">
-        <v>1236.796676461891</v>
+        <v>1216.184125155467</v>
       </c>
       <c r="Q38" t="n">
-        <v>1236.796676461891</v>
+        <v>1216.184125155467</v>
       </c>
       <c r="R38" t="n">
-        <v>1290.143552666532</v>
+        <v>1269.531001360107</v>
       </c>
       <c r="S38" t="n">
         <v>1290.143552666532</v>
@@ -7211,13 +7211,13 @@
         <v>1239.962145629721</v>
       </c>
       <c r="W38" t="n">
-        <v>1149.251812383356</v>
+        <v>1149.251812383355</v>
       </c>
       <c r="X38" t="n">
         <v>1036.434155430991</v>
       </c>
       <c r="Y38" t="n">
-        <v>900.8863438081781</v>
+        <v>900.886343808178</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>550.0668170718135</v>
+        <v>545.3716627164845</v>
       </c>
       <c r="C39" t="n">
-        <v>360.6545428047772</v>
+        <v>355.9593884494482</v>
       </c>
       <c r="D39" t="n">
-        <v>199.8744265658089</v>
+        <v>355.9593884494482</v>
       </c>
       <c r="E39" t="n">
-        <v>26.31122268722338</v>
+        <v>355.9593884494482</v>
       </c>
       <c r="F39" t="n">
-        <v>26.31122268722338</v>
+        <v>355.9593884494482</v>
       </c>
       <c r="G39" t="n">
-        <v>26.31122268722338</v>
+        <v>205.718112498422</v>
       </c>
       <c r="H39" t="n">
-        <v>26.31122268722338</v>
+        <v>78.76854090464984</v>
       </c>
       <c r="I39" t="n">
-        <v>26.31122268722338</v>
+        <v>78.76854090464984</v>
       </c>
       <c r="J39" t="n">
         <v>26.31122268722338</v>
       </c>
       <c r="K39" t="n">
-        <v>65.19236910701483</v>
+        <v>65.19236910701487</v>
       </c>
       <c r="L39" t="n">
         <v>183.7594110345203</v>
       </c>
       <c r="M39" t="n">
-        <v>366.8762207353001</v>
+        <v>366.8762207353002</v>
       </c>
       <c r="N39" t="n">
-        <v>573.2594770746663</v>
+        <v>573.2594770746664</v>
       </c>
       <c r="O39" t="n">
-        <v>706.3127540229498</v>
+        <v>706.3127540229499</v>
       </c>
       <c r="P39" t="n">
-        <v>791.023237211937</v>
+        <v>791.0232372119372</v>
       </c>
       <c r="Q39" t="n">
-        <v>791.023237211937</v>
+        <v>791.0232372119372</v>
       </c>
       <c r="R39" t="n">
-        <v>791.023237211937</v>
+        <v>791.0232372119372</v>
       </c>
       <c r="S39" t="n">
-        <v>791.023237211937</v>
+        <v>791.0232372119372</v>
       </c>
       <c r="T39" t="n">
-        <v>791.023237211937</v>
+        <v>791.0232372119372</v>
       </c>
       <c r="U39" t="n">
-        <v>791.023237211937</v>
+        <v>791.0232372119372</v>
       </c>
       <c r="V39" t="n">
-        <v>791.023237211937</v>
+        <v>791.0232372119372</v>
       </c>
       <c r="W39" t="n">
-        <v>550.0668170718135</v>
+        <v>772.2238941158297</v>
       </c>
       <c r="X39" t="n">
-        <v>550.0668170718135</v>
+        <v>723.9075156434196</v>
       </c>
       <c r="Y39" t="n">
-        <v>550.0668170718135</v>
+        <v>723.9075156434196</v>
       </c>
     </row>
     <row r="40">
@@ -7312,61 +7312,61 @@
         <v>26.31122268722338</v>
       </c>
       <c r="D40" t="n">
-        <v>94.36186534853762</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="E40" t="n">
-        <v>94.36186534853762</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="F40" t="n">
-        <v>94.36186534853762</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="G40" t="n">
-        <v>94.36186534853762</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="H40" t="n">
-        <v>94.36186534853762</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="I40" t="n">
-        <v>94.36186534853762</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="J40" t="n">
-        <v>94.36186534853762</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="K40" t="n">
-        <v>94.36186534853762</v>
+        <v>109.9279233847934</v>
       </c>
       <c r="L40" t="n">
-        <v>94.36186534853762</v>
+        <v>109.9279233847934</v>
       </c>
       <c r="M40" t="n">
-        <v>94.36186534853762</v>
+        <v>109.9279233847934</v>
       </c>
       <c r="N40" t="n">
-        <v>94.36186534853762</v>
+        <v>109.9279233847934</v>
       </c>
       <c r="O40" t="n">
-        <v>94.36186534853762</v>
+        <v>109.9279233847934</v>
       </c>
       <c r="P40" t="n">
-        <v>94.36186534853762</v>
+        <v>109.9279233847934</v>
       </c>
       <c r="Q40" t="n">
-        <v>94.36186534853762</v>
+        <v>109.9279233847934</v>
       </c>
       <c r="R40" t="n">
-        <v>94.36186534853762</v>
+        <v>109.9279233847934</v>
       </c>
       <c r="S40" t="n">
-        <v>106.9735468446524</v>
+        <v>109.9279233847934</v>
       </c>
       <c r="T40" t="n">
-        <v>106.9735468446524</v>
+        <v>109.9279233847934</v>
       </c>
       <c r="U40" t="n">
-        <v>66.00075844755726</v>
+        <v>68.9551349876983</v>
       </c>
       <c r="V40" t="n">
-        <v>68.95513498769833</v>
+        <v>68.9551349876983</v>
       </c>
       <c r="W40" t="n">
         <v>26.31122268722338</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>820.9115219629601</v>
+        <v>820.9115219629608</v>
       </c>
       <c r="C41" t="n">
-        <v>710.1949433311156</v>
+        <v>710.1949433311165</v>
       </c>
       <c r="D41" t="n">
-        <v>612.0372917083134</v>
+        <v>612.0372917083143</v>
       </c>
       <c r="E41" t="n">
-        <v>479.8324154194415</v>
+        <v>479.8324154194422</v>
       </c>
       <c r="F41" t="n">
-        <v>315.5867941019055</v>
+        <v>315.586794101906</v>
       </c>
       <c r="G41" t="n">
         <v>135.5551193516299</v>
       </c>
       <c r="H41" t="n">
-        <v>28.1658050932128</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="I41" t="n">
-        <v>28.1658050932128</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="J41" t="n">
         <v>191.2437500379547</v>
       </c>
       <c r="K41" t="n">
-        <v>424.1252542015557</v>
+        <v>191.2437500379547</v>
       </c>
       <c r="L41" t="n">
-        <v>472.5225046885431</v>
+        <v>477.8311242152386</v>
       </c>
       <c r="M41" t="n">
-        <v>793.4398543819565</v>
+        <v>798.7484739086519</v>
       </c>
       <c r="N41" t="n">
-        <v>870.6632573734614</v>
+        <v>978.9849694835679</v>
       </c>
       <c r="O41" t="n">
-        <v>1144.863891962938</v>
+        <v>1014.995480382748</v>
       </c>
       <c r="P41" t="n">
-        <v>1349.175182914475</v>
+        <v>1239.772169377476</v>
       </c>
       <c r="Q41" t="n">
-        <v>1349.175182914475</v>
+        <v>1390.294850848453</v>
       </c>
       <c r="R41" t="n">
-        <v>1395.099881236666</v>
+        <v>1390.294850848453</v>
       </c>
       <c r="S41" t="n">
-        <v>1408.29025466064</v>
+        <v>1390.294850848453</v>
       </c>
       <c r="T41" t="n">
-        <v>1408.29025466064</v>
+        <v>1408.290254660641</v>
       </c>
       <c r="U41" t="n">
         <v>1398.640155142399</v>
       </c>
       <c r="V41" t="n">
-        <v>1317.545509613611</v>
+        <v>1317.545509613612</v>
       </c>
       <c r="W41" t="n">
-        <v>1219.262298209456</v>
+        <v>1219.262298209457</v>
       </c>
       <c r="X41" t="n">
-        <v>1098.871763099301</v>
+        <v>1098.871763099302</v>
       </c>
       <c r="Y41" t="n">
-        <v>955.751073318698</v>
+        <v>955.7510733186987</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>201.7290089717984</v>
+        <v>155.115376686985</v>
       </c>
       <c r="C42" t="n">
-        <v>201.7290089717984</v>
+        <v>155.115376686985</v>
       </c>
       <c r="D42" t="n">
-        <v>201.7290089717984</v>
+        <v>155.115376686985</v>
       </c>
       <c r="E42" t="n">
-        <v>28.1658050932128</v>
+        <v>155.115376686985</v>
       </c>
       <c r="F42" t="n">
-        <v>28.1658050932128</v>
+        <v>155.115376686985</v>
       </c>
       <c r="G42" t="n">
-        <v>28.1658050932128</v>
+        <v>155.115376686985</v>
       </c>
       <c r="H42" t="n">
-        <v>28.1658050932128</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="I42" t="n">
-        <v>28.1658050932128</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="J42" t="n">
-        <v>28.1658050932128</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="K42" t="n">
-        <v>67.04695151300425</v>
+        <v>67.0469515130043</v>
       </c>
       <c r="L42" t="n">
-        <v>185.6139934405097</v>
+        <v>185.6139934405098</v>
       </c>
       <c r="M42" t="n">
-        <v>368.7308031412895</v>
+        <v>368.7308031412896</v>
       </c>
       <c r="N42" t="n">
-        <v>575.1140594806557</v>
+        <v>575.1140594806558</v>
       </c>
       <c r="O42" t="n">
-        <v>708.1673364289392</v>
+        <v>708.1673364289393</v>
       </c>
       <c r="P42" t="n">
-        <v>792.8778196179264</v>
+        <v>792.8778196179265</v>
       </c>
       <c r="Q42" t="n">
-        <v>792.8778196179264</v>
+        <v>792.8778196179265</v>
       </c>
       <c r="R42" t="n">
-        <v>792.8778196179264</v>
+        <v>657.157276572598</v>
       </c>
       <c r="S42" t="n">
-        <v>792.8778196179264</v>
+        <v>657.157276572598</v>
       </c>
       <c r="T42" t="n">
-        <v>792.8778196179264</v>
+        <v>657.157276572598</v>
       </c>
       <c r="U42" t="n">
-        <v>553.2538885261138</v>
+        <v>657.157276572598</v>
       </c>
       <c r="V42" t="n">
-        <v>310.1741704297478</v>
+        <v>414.0775584762321</v>
       </c>
       <c r="W42" t="n">
-        <v>283.8019491758502</v>
+        <v>155.115376686985</v>
       </c>
       <c r="X42" t="n">
-        <v>283.8019491758502</v>
+        <v>155.115376686985</v>
       </c>
       <c r="Y42" t="n">
-        <v>201.7290089717984</v>
+        <v>155.115376686985</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.1658050932128</v>
+        <v>51.38606869748244</v>
       </c>
       <c r="C43" t="n">
-        <v>28.1658050932128</v>
+        <v>51.38606869748244</v>
       </c>
       <c r="D43" t="n">
-        <v>28.1658050932128</v>
+        <v>51.38606869748244</v>
       </c>
       <c r="E43" t="n">
-        <v>28.1658050932128</v>
+        <v>60.30565623490443</v>
       </c>
       <c r="F43" t="n">
-        <v>28.1658050932128</v>
+        <v>60.30565623490443</v>
       </c>
       <c r="G43" t="n">
-        <v>28.1658050932128</v>
+        <v>131.4867779132289</v>
       </c>
       <c r="H43" t="n">
-        <v>28.1658050932128</v>
+        <v>131.4867779132289</v>
       </c>
       <c r="I43" t="n">
-        <v>28.1658050932128</v>
+        <v>131.4867779132289</v>
       </c>
       <c r="J43" t="n">
-        <v>28.1658050932128</v>
+        <v>131.4867779132289</v>
       </c>
       <c r="K43" t="n">
-        <v>131.4867779132288</v>
+        <v>131.4867779132289</v>
       </c>
       <c r="L43" t="n">
-        <v>131.4867779132288</v>
+        <v>131.4867779132289</v>
       </c>
       <c r="M43" t="n">
-        <v>131.4867779132288</v>
+        <v>131.4867779132289</v>
       </c>
       <c r="N43" t="n">
-        <v>131.4867779132288</v>
+        <v>131.4867779132289</v>
       </c>
       <c r="O43" t="n">
-        <v>131.4867779132288</v>
+        <v>131.4867779132289</v>
       </c>
       <c r="P43" t="n">
-        <v>131.4867779132288</v>
+        <v>131.4867779132289</v>
       </c>
       <c r="Q43" t="n">
-        <v>131.4867779132288</v>
+        <v>131.4867779132289</v>
       </c>
       <c r="R43" t="n">
-        <v>131.4867779132288</v>
+        <v>131.4867779132289</v>
       </c>
       <c r="S43" t="n">
-        <v>131.4867779132288</v>
+        <v>131.4867779132289</v>
       </c>
       <c r="T43" t="n">
-        <v>131.4867779132288</v>
+        <v>131.4867779132289</v>
       </c>
       <c r="U43" t="n">
-        <v>82.94111135834351</v>
+        <v>82.94111135834356</v>
       </c>
       <c r="V43" t="n">
-        <v>78.38259555147786</v>
+        <v>78.38259555147789</v>
       </c>
       <c r="W43" t="n">
-        <v>28.1658050932128</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="X43" t="n">
-        <v>28.1658050932128</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.1658050932128</v>
+        <v>51.38606869748244</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>820.9115219629613</v>
+        <v>820.9115219629609</v>
       </c>
       <c r="C44" t="n">
-        <v>710.194943331117</v>
+        <v>710.1949433311164</v>
       </c>
       <c r="D44" t="n">
-        <v>612.0372917083143</v>
+        <v>612.037291708314</v>
       </c>
       <c r="E44" t="n">
-        <v>479.8324154194419</v>
+        <v>479.832415419442</v>
       </c>
       <c r="F44" t="n">
         <v>315.586794101906</v>
@@ -7640,43 +7640,43 @@
         <v>135.5551193516299</v>
       </c>
       <c r="H44" t="n">
-        <v>28.1658050932128</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="I44" t="n">
-        <v>28.1658050932128</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="J44" t="n">
         <v>191.2437500379547</v>
       </c>
       <c r="K44" t="n">
-        <v>424.1252542015557</v>
+        <v>191.2437500379547</v>
       </c>
       <c r="L44" t="n">
-        <v>710.7126283788394</v>
+        <v>477.8311242152386</v>
       </c>
       <c r="M44" t="n">
-        <v>793.4398543819565</v>
+        <v>798.7484739086519</v>
       </c>
       <c r="N44" t="n">
-        <v>870.6632573734614</v>
+        <v>1114.162000590453</v>
       </c>
       <c r="O44" t="n">
-        <v>1144.863891962938</v>
+        <v>1150.172511489634</v>
       </c>
       <c r="P44" t="n">
-        <v>1193.847471055285</v>
+        <v>1362.36555633845</v>
       </c>
       <c r="Q44" t="n">
-        <v>1344.370152526262</v>
+        <v>1362.36555633845</v>
       </c>
       <c r="R44" t="n">
-        <v>1390.294850848453</v>
+        <v>1408.290254660641</v>
       </c>
       <c r="S44" t="n">
-        <v>1390.294850848453</v>
+        <v>1408.290254660641</v>
       </c>
       <c r="T44" t="n">
-        <v>1408.29025466064</v>
+        <v>1408.290254660641</v>
       </c>
       <c r="U44" t="n">
         <v>1398.640155142399</v>
@@ -7691,7 +7691,7 @@
         <v>1098.871763099302</v>
       </c>
       <c r="Y44" t="n">
-        <v>955.7510733186991</v>
+        <v>955.7510733186988</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>339.1871972832072</v>
+        <v>309.7093252668303</v>
       </c>
       <c r="C45" t="n">
-        <v>339.1871972832072</v>
+        <v>309.7093252668303</v>
       </c>
       <c r="D45" t="n">
-        <v>178.407081044239</v>
+        <v>148.9292090278621</v>
       </c>
       <c r="E45" t="n">
-        <v>178.407081044239</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="F45" t="n">
-        <v>178.407081044239</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="G45" t="n">
-        <v>28.1658050932128</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="H45" t="n">
-        <v>28.1658050932128</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="I45" t="n">
-        <v>28.1658050932128</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="J45" t="n">
-        <v>28.1658050932128</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="K45" t="n">
-        <v>67.04695151300425</v>
+        <v>67.04695151300429</v>
       </c>
       <c r="L45" t="n">
         <v>185.6139934405097</v>
       </c>
       <c r="M45" t="n">
-        <v>368.7308031412895</v>
+        <v>368.7308031412896</v>
       </c>
       <c r="N45" t="n">
-        <v>575.1140594806557</v>
+        <v>575.1140594806558</v>
       </c>
       <c r="O45" t="n">
-        <v>708.1673364289392</v>
+        <v>708.1673364289393</v>
       </c>
       <c r="P45" t="n">
-        <v>792.8778196179264</v>
+        <v>792.8778196179265</v>
       </c>
       <c r="Q45" t="n">
-        <v>792.8778196179264</v>
+        <v>792.8778196179265</v>
       </c>
       <c r="R45" t="n">
-        <v>792.8778196179264</v>
+        <v>792.8778196179265</v>
       </c>
       <c r="S45" t="n">
-        <v>792.8778196179264</v>
+        <v>792.8778196179265</v>
       </c>
       <c r="T45" t="n">
-        <v>575.7588476930954</v>
+        <v>575.7588476930955</v>
       </c>
       <c r="U45" t="n">
-        <v>575.7588476930954</v>
+        <v>336.1349166012829</v>
       </c>
       <c r="V45" t="n">
-        <v>575.7054776125406</v>
+        <v>336.081546520728</v>
       </c>
       <c r="W45" t="n">
-        <v>339.1871972832072</v>
+        <v>309.7093252668303</v>
       </c>
       <c r="X45" t="n">
-        <v>339.1871972832072</v>
+        <v>309.7093252668303</v>
       </c>
       <c r="Y45" t="n">
-        <v>339.1871972832072</v>
+        <v>309.7093252668303</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.1658050932128</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="C46" t="n">
-        <v>28.1658050932128</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="D46" t="n">
-        <v>28.1658050932128</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="E46" t="n">
-        <v>28.1658050932128</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="F46" t="n">
-        <v>28.1658050932128</v>
+        <v>128.818315387247</v>
       </c>
       <c r="G46" t="n">
-        <v>28.1658050932128</v>
+        <v>128.818315387247</v>
       </c>
       <c r="H46" t="n">
-        <v>28.1658050932128</v>
+        <v>128.818315387247</v>
       </c>
       <c r="I46" t="n">
-        <v>28.1658050932128</v>
+        <v>128.818315387247</v>
       </c>
       <c r="J46" t="n">
-        <v>131.4867779132288</v>
+        <v>128.818315387247</v>
       </c>
       <c r="K46" t="n">
-        <v>131.4867779132288</v>
+        <v>128.818315387247</v>
       </c>
       <c r="L46" t="n">
-        <v>131.4867779132288</v>
+        <v>128.818315387247</v>
       </c>
       <c r="M46" t="n">
-        <v>131.4867779132288</v>
+        <v>128.818315387247</v>
       </c>
       <c r="N46" t="n">
-        <v>131.4867779132288</v>
+        <v>128.818315387247</v>
       </c>
       <c r="O46" t="n">
-        <v>131.4867779132288</v>
+        <v>128.818315387247</v>
       </c>
       <c r="P46" t="n">
-        <v>131.4867779132288</v>
+        <v>128.818315387247</v>
       </c>
       <c r="Q46" t="n">
-        <v>131.4867779132288</v>
+        <v>128.818315387247</v>
       </c>
       <c r="R46" t="n">
-        <v>131.4867779132288</v>
+        <v>128.818315387247</v>
       </c>
       <c r="S46" t="n">
-        <v>131.4867779132288</v>
+        <v>128.818315387247</v>
       </c>
       <c r="T46" t="n">
-        <v>131.4867779132288</v>
+        <v>131.4867779132289</v>
       </c>
       <c r="U46" t="n">
-        <v>82.94111135834351</v>
+        <v>82.94111135834356</v>
       </c>
       <c r="V46" t="n">
-        <v>78.38259555147786</v>
+        <v>78.38259555147789</v>
       </c>
       <c r="W46" t="n">
-        <v>28.1658050932128</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="X46" t="n">
-        <v>28.1658050932128</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.1658050932128</v>
+        <v>28.16580509321281</v>
       </c>
     </row>
   </sheetData>
@@ -8772,19 +8772,19 @@
         <v>132.0995883116343</v>
       </c>
       <c r="L12" t="n">
-        <v>240.3045437566416</v>
+        <v>152.091723800512</v>
       </c>
       <c r="M12" t="n">
-        <v>238.8597051383724</v>
+        <v>238.8597051383725</v>
       </c>
       <c r="N12" t="n">
-        <v>224.1952211518978</v>
+        <v>224.1952211518979</v>
       </c>
       <c r="O12" t="n">
-        <v>240.2281564014257</v>
+        <v>242.8748317222148</v>
       </c>
       <c r="P12" t="n">
-        <v>120.7977294433386</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -9006,19 +9006,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>171.373473584151</v>
+        <v>132.0995883116343</v>
       </c>
       <c r="L15" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M15" t="n">
-        <v>233.4222981833307</v>
+        <v>238.8597051383725</v>
       </c>
       <c r="N15" t="n">
-        <v>224.1952211518978</v>
+        <v>224.1952211518979</v>
       </c>
       <c r="O15" t="n">
-        <v>120.8255334486102</v>
+        <v>154.6620117660853</v>
       </c>
       <c r="P15" t="n">
         <v>206.3638740786793</v>
@@ -9243,22 +9243,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>171.373473584151</v>
+        <v>132.0995883116343</v>
       </c>
       <c r="L18" t="n">
-        <v>120.5398549409795</v>
+        <v>152.091723800512</v>
       </c>
       <c r="M18" t="n">
-        <v>238.8597051383724</v>
+        <v>238.8597051383725</v>
       </c>
       <c r="N18" t="n">
-        <v>224.1952211518978</v>
+        <v>224.1952211518979</v>
       </c>
       <c r="O18" t="n">
-        <v>242.8748317222147</v>
+        <v>242.8748317222148</v>
       </c>
       <c r="P18" t="n">
-        <v>198.6418576656951</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9483,16 +9483,16 @@
         <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>120.5398549409795</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M21" t="n">
-        <v>238.8597051383724</v>
+        <v>238.8597051383725</v>
       </c>
       <c r="N21" t="n">
-        <v>216.4732047389136</v>
+        <v>102.1459228782932</v>
       </c>
       <c r="O21" t="n">
-        <v>242.8748317222147</v>
+        <v>237.4374247671734</v>
       </c>
       <c r="P21" t="n">
         <v>206.3638740786793</v>
@@ -9723,16 +9723,16 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M24" t="n">
-        <v>238.8597051383725</v>
+        <v>238.8597051383728</v>
       </c>
       <c r="N24" t="n">
-        <v>218.7578141968563</v>
+        <v>182.2746605585928</v>
       </c>
       <c r="O24" t="n">
-        <v>120.8255334486102</v>
+        <v>242.874831722215</v>
       </c>
       <c r="P24" t="n">
-        <v>206.3638740786793</v>
+        <v>120.7977294433386</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>179.7047647029787</v>
+        <v>57.655466429374</v>
       </c>
       <c r="C11" t="n">
-        <v>33.77372343271963</v>
+        <v>136.9792065124227</v>
       </c>
       <c r="D11" t="n">
-        <v>63.92509534091417</v>
+        <v>143.3896839673726</v>
       </c>
       <c r="E11" t="n">
         <v>177.0964363867815</v>
       </c>
       <c r="F11" t="n">
-        <v>208.8167739651589</v>
+        <v>208.8167739651588</v>
       </c>
       <c r="G11" t="n">
-        <v>102.3956685899672</v>
+        <v>224.4449668635718</v>
       </c>
       <c r="H11" t="n">
-        <v>30.47973170302663</v>
+        <v>152.5290299766312</v>
       </c>
       <c r="I11" t="n">
-        <v>46.2136088607983</v>
+        <v>46.21360886079827</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>32.88999934163209</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>28.03643329293229</v>
       </c>
       <c r="U11" t="n">
-        <v>55.76720738385737</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>126.4973079342974</v>
       </c>
       <c r="W11" t="n">
-        <v>143.5139881509123</v>
+        <v>21.46468987730756</v>
       </c>
       <c r="X11" t="n">
-        <v>165.4002386198515</v>
+        <v>43.3509403462468</v>
       </c>
       <c r="Y11" t="n">
-        <v>187.9030917435953</v>
+        <v>187.9030917435952</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>57.65546642937409</v>
+        <v>179.7047647029787</v>
       </c>
       <c r="C14" t="n">
-        <v>155.8230217063241</v>
+        <v>155.8230217063242</v>
       </c>
       <c r="D14" t="n">
-        <v>68.7786613896137</v>
+        <v>143.3896839673726</v>
       </c>
       <c r="E14" t="n">
-        <v>177.0964363867815</v>
+        <v>55.04713811317683</v>
       </c>
       <c r="F14" t="n">
-        <v>86.76747569155424</v>
+        <v>208.8167739651588</v>
       </c>
       <c r="G14" t="n">
-        <v>102.3956685899672</v>
+        <v>224.4449668635718</v>
       </c>
       <c r="H14" t="n">
-        <v>152.5290299766312</v>
+        <v>39.67234980205725</v>
       </c>
       <c r="I14" t="n">
-        <v>46.21360886079824</v>
+        <v>46.21360886079827</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>28.03643329293227</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>55.76720738385731</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>126.4973079342973</v>
+        <v>126.4973079342974</v>
       </c>
       <c r="W14" t="n">
         <v>143.5139881509122</v>
       </c>
       <c r="X14" t="n">
-        <v>165.4002386198515</v>
+        <v>43.3509403462468</v>
       </c>
       <c r="Y14" t="n">
         <v>187.9030917435952</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>913205.2965176306</v>
+        <v>913205.2965176308</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>913205.2965176306</v>
+        <v>913205.2965176308</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573255.7968646988</v>
+        <v>573255.7968646986</v>
       </c>
       <c r="C2" t="n">
-        <v>573255.7968646988</v>
+        <v>573255.7968646991</v>
       </c>
       <c r="D2" t="n">
         <v>573255.7968646991</v>
       </c>
       <c r="E2" t="n">
-        <v>493993.557863312</v>
+        <v>493993.5578633118</v>
       </c>
       <c r="F2" t="n">
-        <v>493993.5578633118</v>
+        <v>493993.5578633119</v>
       </c>
       <c r="G2" t="n">
         <v>574417.0567580479</v>
       </c>
       <c r="H2" t="n">
-        <v>574417.0567580481</v>
+        <v>574417.0567580482</v>
       </c>
       <c r="I2" t="n">
         <v>574417.0567580482</v>
       </c>
       <c r="J2" t="n">
-        <v>574417.0567580479</v>
+        <v>574417.0567580477</v>
       </c>
       <c r="K2" t="n">
-        <v>574417.0567580478</v>
+        <v>574417.0567580477</v>
       </c>
       <c r="L2" t="n">
-        <v>574417.0567580478</v>
+        <v>574417.0567580477</v>
       </c>
       <c r="M2" t="n">
-        <v>574417.0567580488</v>
+        <v>574417.0567580489</v>
       </c>
       <c r="N2" t="n">
-        <v>574417.0567580486</v>
+        <v>574417.0567580487</v>
       </c>
       <c r="O2" t="n">
-        <v>574417.0567580485</v>
+        <v>574417.0567580487</v>
       </c>
       <c r="P2" t="n">
-        <v>574417.0567580482</v>
+        <v>574417.0567580484</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>275373.0470845677</v>
+        <v>275373.0470845678</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>155188.0488107727</v>
+        <v>155188.0488107728</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>101197.8463474379</v>
       </c>
       <c r="M3" t="n">
-        <v>28140.86133097987</v>
+        <v>28140.86133097976</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>68716.99883240153</v>
+        <v>68716.99883240169</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>456676.6510757953</v>
       </c>
       <c r="E4" t="n">
+        <v>349734.5238460589</v>
+      </c>
+      <c r="F4" t="n">
         <v>349734.5238460588</v>
-      </c>
-      <c r="F4" t="n">
-        <v>349734.5238460589</v>
       </c>
       <c r="G4" t="n">
         <v>420238.0338746422</v>
@@ -26439,22 +26439,22 @@
         <v>420238.0338746422</v>
       </c>
       <c r="J4" t="n">
-        <v>419094.788274104</v>
+        <v>419094.7882741041</v>
       </c>
       <c r="K4" t="n">
-        <v>419094.788274104</v>
+        <v>419094.7882741041</v>
       </c>
       <c r="L4" t="n">
-        <v>419094.788274104</v>
+        <v>419094.7882741041</v>
       </c>
       <c r="M4" t="n">
-        <v>418553.2323741539</v>
+        <v>418553.2323741538</v>
       </c>
       <c r="N4" t="n">
-        <v>418553.2323741539</v>
+        <v>418553.2323741538</v>
       </c>
       <c r="O4" t="n">
-        <v>418653.3257278842</v>
+        <v>418653.3257278841</v>
       </c>
       <c r="P4" t="n">
         <v>418653.3257278841</v>
@@ -26476,28 +26476,28 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>26025.86226334829</v>
+        <v>26025.8622633483</v>
       </c>
       <c r="F5" t="n">
         <v>26025.8622633483</v>
       </c>
       <c r="G5" t="n">
-        <v>36660.36444407674</v>
+        <v>36660.36444407675</v>
       </c>
       <c r="H5" t="n">
-        <v>36660.36444407674</v>
+        <v>36660.36444407673</v>
       </c>
       <c r="I5" t="n">
-        <v>36660.36444407674</v>
+        <v>36660.36444407675</v>
       </c>
       <c r="J5" t="n">
-        <v>47580.58365082261</v>
+        <v>47580.58365082262</v>
       </c>
       <c r="K5" t="n">
-        <v>47580.58365082261</v>
+        <v>47580.58365082262</v>
       </c>
       <c r="L5" t="n">
-        <v>47580.58365082261</v>
+        <v>47580.58365082262</v>
       </c>
       <c r="M5" t="n">
         <v>43117.20390483014</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>82951.54578890346</v>
+        <v>82947.07940469815</v>
       </c>
       <c r="C6" t="n">
-        <v>82951.54578890346</v>
+        <v>82947.07940469861</v>
       </c>
       <c r="D6" t="n">
-        <v>82951.54578890381</v>
+        <v>82947.07940469861</v>
       </c>
       <c r="E6" t="n">
-        <v>-157139.8753306627</v>
+        <v>-157449.1964802583</v>
       </c>
       <c r="F6" t="n">
-        <v>118233.1717539047</v>
+        <v>117923.8506043096</v>
       </c>
       <c r="G6" t="n">
-        <v>16320.81209189112</v>
+        <v>16320.81209189105</v>
       </c>
       <c r="H6" t="n">
-        <v>117518.6584393292</v>
+        <v>117518.6584393295</v>
       </c>
       <c r="I6" t="n">
         <v>117518.6584393293</v>
       </c>
       <c r="J6" t="n">
-        <v>-47446.36397765143</v>
+        <v>-47446.36397765191</v>
       </c>
       <c r="K6" t="n">
-        <v>107741.6848331212</v>
+        <v>107741.684833121</v>
       </c>
       <c r="L6" t="n">
-        <v>6543.838485683344</v>
+        <v>6543.838485683096</v>
       </c>
       <c r="M6" t="n">
-        <v>84605.75914808491</v>
+        <v>84605.75914808526</v>
       </c>
       <c r="N6" t="n">
-        <v>112746.6204790646</v>
+        <v>112746.6204790648</v>
       </c>
       <c r="O6" t="n">
-        <v>43150.32351528944</v>
+        <v>43150.32351528961</v>
       </c>
       <c r="P6" t="n">
-        <v>111867.3223476908</v>
+        <v>111867.3223476909</v>
       </c>
     </row>
   </sheetData>
@@ -26695,31 +26695,31 @@
         <v>194.3824756748546</v>
       </c>
       <c r="F2" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="G2" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="H2" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091518</v>
       </c>
       <c r="I2" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091518</v>
       </c>
       <c r="J2" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="K2" t="n">
         <v>212.9171572481403</v>
       </c>
       <c r="L2" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="M2" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="N2" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="O2" t="n">
         <v>240.5960845356529</v>
@@ -26765,16 +26765,16 @@
         <v>103.8405771010909</v>
       </c>
       <c r="L3" t="n">
-        <v>103.8405771010909</v>
+        <v>103.840577101091</v>
       </c>
       <c r="M3" t="n">
-        <v>103.8405771010909</v>
+        <v>103.840577101091</v>
       </c>
       <c r="N3" t="n">
-        <v>103.8405771010909</v>
+        <v>103.840577101091</v>
       </c>
       <c r="O3" t="n">
-        <v>103.8405771010909</v>
+        <v>103.840577101091</v>
       </c>
       <c r="P3" t="n">
         <v>103.8405771010909</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="F4" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="G4" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="H4" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="I4" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736049</v>
       </c>
       <c r="J4" t="n">
         <v>450.9395818638969</v>
@@ -26826,10 +26826,10 @@
         <v>328.8902835902923</v>
       </c>
       <c r="O4" t="n">
-        <v>352.07256366516</v>
+        <v>352.0725636651601</v>
       </c>
       <c r="P4" t="n">
-        <v>352.07256366516</v>
+        <v>352.0725636651601</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>126.4973079342973</v>
+        <v>126.4973079342974</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>86.41984931384289</v>
+        <v>86.41984931384309</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>126.4973079342973</v>
+        <v>126.4973079342974</v>
       </c>
       <c r="M2" t="n">
-        <v>35.17607666372484</v>
+        <v>35.1760766637247</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>78.92269993763068</v>
+        <v>78.92269993763082</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>328.8902835902923</v>
+        <v>328.890283590292</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.18228007486772</v>
+        <v>23.18228007486789</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>126.4973079342973</v>
+        <v>126.4973079342974</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>86.41984931384289</v>
+        <v>86.41984931384309</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28114,13 +28114,13 @@
         <v>75.87088762177223</v>
       </c>
       <c r="K11" t="n">
-        <v>5.362241946156956</v>
+        <v>127.4115402197616</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>8.560449355640969</v>
+        <v>38.48644372500164</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -28129,10 +28129,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>135.5982222085227</v>
+        <v>13.54892393491818</v>
       </c>
       <c r="Q11" t="n">
-        <v>194.3824756748546</v>
+        <v>164.4564813054942</v>
       </c>
       <c r="R11" t="n">
         <v>194.2075003718243</v>
@@ -28178,10 +28178,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>94.00755992502874</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.7388631915159</v>
+        <v>83.00331476342713</v>
       </c>
       <c r="H12" t="n">
         <v>125.6800758778345</v>
@@ -28190,7 +28190,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J12" t="n">
-        <v>51.93274503525221</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28217,7 +28217,7 @@
         <v>134.3633376148752</v>
       </c>
       <c r="S12" t="n">
-        <v>191.4841495043256</v>
+        <v>69.43485123072095</v>
       </c>
       <c r="T12" t="n">
         <v>194.3824756748546</v>
@@ -28226,13 +28226,13 @@
         <v>194.3824756748546</v>
       </c>
       <c r="V12" t="n">
-        <v>118.5996226417977</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="W12" t="n">
         <v>194.3824756748546</v>
       </c>
       <c r="X12" t="n">
-        <v>95.26361616586604</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="Y12" t="n">
         <v>194.3824756748546</v>
@@ -28251,10 +28251,10 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>145.1826502507107</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="E13" t="n">
-        <v>194.3824756748546</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
         <v>194.3824756748546</v>
@@ -28263,25 +28263,25 @@
         <v>168.6959616282545</v>
       </c>
       <c r="H13" t="n">
-        <v>194.3824756748546</v>
+        <v>165.7816030517371</v>
       </c>
       <c r="I13" t="n">
         <v>164.7082190429235</v>
       </c>
       <c r="J13" t="n">
-        <v>119.8993073508208</v>
+        <v>149.0512520159486</v>
       </c>
       <c r="K13" t="n">
         <v>66.47076232176846</v>
       </c>
       <c r="L13" t="n">
-        <v>153.4855082474398</v>
+        <v>153.4855082474399</v>
       </c>
       <c r="M13" t="n">
         <v>24.46235891800148</v>
       </c>
       <c r="N13" t="n">
-        <v>134.8774526432299</v>
+        <v>137.8328896397047</v>
       </c>
       <c r="O13" t="n">
         <v>36.79854607717665</v>
@@ -28324,37 +28324,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="C14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="D14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="E14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="F14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="G14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="H14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="I14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="J14" t="n">
-        <v>117.0976540429748</v>
+        <v>75.87088762177223</v>
       </c>
       <c r="K14" t="n">
-        <v>127.4115402197615</v>
+        <v>127.4115402197616</v>
       </c>
       <c r="L14" t="n">
-        <v>73.163186670587</v>
+        <v>73.16318667058711</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -28363,7 +28363,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>41.05179111817253</v>
       </c>
       <c r="P14" t="n">
         <v>13.54892393491818</v>
@@ -28372,28 +28372,28 @@
         <v>88.55297193870592</v>
       </c>
       <c r="R14" t="n">
-        <v>194.2075003718243</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="S14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="T14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="U14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="V14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="W14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="X14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="Y14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
     </row>
     <row r="15">
@@ -28418,7 +28418,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>26.68956491791135</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H15" t="n">
         <v>125.6800758778345</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.136586121265598</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>134.3633376148752</v>
+        <v>22.83163027279979</v>
       </c>
       <c r="S15" t="n">
-        <v>191.4841495043256</v>
+        <v>69.43485123072095</v>
       </c>
       <c r="T15" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="U15" t="n">
-        <v>175.8330417205025</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="V15" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="W15" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="X15" t="n">
-        <v>95.26361616586604</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="Y15" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
     </row>
     <row r="16">
@@ -28482,16 +28482,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4571809719723</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="D16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="E16" t="n">
-        <v>194.3824756748547</v>
+        <v>177.7984607815697</v>
       </c>
       <c r="F16" t="n">
         <v>138.9268822184467</v>
@@ -28500,22 +28500,22 @@
         <v>168.6959616282545</v>
       </c>
       <c r="H16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="I16" t="n">
-        <v>164.7082190429235</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="J16" t="n">
         <v>119.8993073508208</v>
       </c>
       <c r="K16" t="n">
-        <v>188.520060595373</v>
+        <v>66.47076232176846</v>
       </c>
       <c r="L16" t="n">
         <v>31.43620997383525</v>
       </c>
       <c r="M16" t="n">
-        <v>133.0464332175081</v>
+        <v>146.5116571916062</v>
       </c>
       <c r="N16" t="n">
         <v>15.78359136610009</v>
@@ -28527,31 +28527,31 @@
         <v>57.89645227716781</v>
       </c>
       <c r="Q16" t="n">
-        <v>126.8139378168763</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="R16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="S16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="T16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="U16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="V16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="W16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="X16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="Y16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
     </row>
     <row r="17">
@@ -28582,7 +28582,7 @@
         <v>320.879783609152</v>
       </c>
       <c r="I17" t="n">
-        <v>307.8443607092419</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="J17" t="n">
         <v>75.87088762177223</v>
@@ -28609,7 +28609,7 @@
         <v>88.55297193870592</v>
       </c>
       <c r="R17" t="n">
-        <v>194.2075003718243</v>
+        <v>316.256798645429</v>
       </c>
       <c r="S17" t="n">
         <v>227.2724750164867</v>
@@ -28618,7 +28618,7 @@
         <v>320.879783609152</v>
       </c>
       <c r="U17" t="n">
-        <v>320.879783609152</v>
+        <v>266.0787615091368</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -28652,13 +28652,13 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>36.77414084632377</v>
+        <v>36.77414084632366</v>
       </c>
       <c r="G18" t="n">
-        <v>148.7388631915159</v>
+        <v>47.37442739339055</v>
       </c>
       <c r="H18" t="n">
-        <v>125.6800758778345</v>
+        <v>3.630777604229797</v>
       </c>
       <c r="I18" t="n">
         <v>107.1657389737211</v>
@@ -28685,13 +28685,13 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.136586121265598</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>26.86231569548427</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S18" t="n">
-        <v>191.4841495043256</v>
+        <v>69.43485123072095</v>
       </c>
       <c r="T18" t="n">
         <v>214.9477822055827</v>
@@ -28706,10 +28706,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>95.26361616586604</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>101.3349878604211</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -28798,31 +28798,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091518</v>
       </c>
       <c r="C20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091518</v>
       </c>
       <c r="D20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091518</v>
       </c>
       <c r="E20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091518</v>
       </c>
       <c r="F20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091518</v>
       </c>
       <c r="G20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091518</v>
       </c>
       <c r="H20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091518</v>
       </c>
       <c r="I20" t="n">
         <v>240.5960845356529</v>
       </c>
       <c r="J20" t="n">
-        <v>75.87088762177223</v>
+        <v>197.9201858953769</v>
       </c>
       <c r="K20" t="n">
         <v>5.362241946156956</v>
@@ -28831,7 +28831,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>38.48644372500152</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -28843,31 +28843,31 @@
         <v>13.54892393491818</v>
       </c>
       <c r="Q20" t="n">
-        <v>210.6022702123105</v>
+        <v>88.55297193870592</v>
       </c>
       <c r="R20" t="n">
-        <v>199.3809091881724</v>
+        <v>194.2075003718243</v>
       </c>
       <c r="S20" t="n">
-        <v>227.2724750164867</v>
+        <v>270.9323275578367</v>
       </c>
       <c r="T20" t="n">
         <v>222.4189089677869</v>
       </c>
       <c r="U20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091518</v>
       </c>
       <c r="V20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091518</v>
       </c>
       <c r="W20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091518</v>
       </c>
       <c r="X20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091518</v>
       </c>
       <c r="Y20" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091518</v>
       </c>
     </row>
     <row r="21">
@@ -28877,28 +28877,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>54.70119612406117</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>65.46885325076136</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>158.8370321309086</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>36.77414084632366</v>
       </c>
       <c r="G21" t="n">
         <v>148.7388631915159</v>
       </c>
       <c r="H21" t="n">
-        <v>125.6800758778345</v>
+        <v>3.630777604229797</v>
       </c>
       <c r="I21" t="n">
-        <v>107.1657389737211</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>51.93274503525221</v>
@@ -28931,13 +28931,13 @@
         <v>191.4841495043256</v>
       </c>
       <c r="T21" t="n">
-        <v>92.89848393197812</v>
+        <v>214.9477822055827</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2276917808945</v>
+        <v>115.1783935072898</v>
       </c>
       <c r="V21" t="n">
-        <v>133.1478989960113</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091518</v>
       </c>
       <c r="C23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091518</v>
       </c>
       <c r="D23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091518</v>
       </c>
       <c r="E23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091518</v>
       </c>
       <c r="F23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091518</v>
       </c>
       <c r="G23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091518</v>
       </c>
       <c r="H23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091518</v>
       </c>
       <c r="I23" t="n">
-        <v>240.5960845356529</v>
+        <v>320.8797836091518</v>
       </c>
       <c r="J23" t="n">
         <v>75.87088762177223</v>
@@ -29071,10 +29071,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>44.04586090844809</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>85.42545174145665</v>
       </c>
       <c r="P23" t="n">
         <v>13.54892393491818</v>
@@ -29086,25 +29086,25 @@
         <v>194.2075003718243</v>
       </c>
       <c r="S23" t="n">
-        <v>250.474890281628</v>
+        <v>227.2724750164867</v>
       </c>
       <c r="T23" t="n">
-        <v>320.879783609152</v>
+        <v>222.4189089677869</v>
       </c>
       <c r="U23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091518</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091518</v>
       </c>
       <c r="W23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091518</v>
       </c>
       <c r="X23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091518</v>
       </c>
       <c r="Y23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091518</v>
       </c>
     </row>
     <row r="24">
@@ -29117,7 +29117,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>65.46885325076128</v>
+        <v>80.01712960497473</v>
       </c>
       <c r="D24" t="n">
         <v>159.1723150765785</v>
@@ -29126,7 +29126,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>36.77414084632345</v>
       </c>
       <c r="G24" t="n">
         <v>148.7388631915159</v>
@@ -29162,19 +29162,19 @@
         <v>6.136586121265598</v>
       </c>
       <c r="R24" t="n">
-        <v>12.31403934127057</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S24" t="n">
-        <v>191.4841495043256</v>
+        <v>69.43485123072074</v>
       </c>
       <c r="T24" t="n">
-        <v>214.9477822055827</v>
+        <v>92.89848393197778</v>
       </c>
       <c r="U24" t="n">
-        <v>115.1783935072898</v>
+        <v>237.2276917808945</v>
       </c>
       <c r="V24" t="n">
-        <v>133.1478989960113</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="C26" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="D26" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="E26" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="F26" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="G26" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="H26" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="I26" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="J26" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="K26" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="L26" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="M26" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="N26" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="O26" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="P26" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481406</v>
       </c>
       <c r="R26" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="S26" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="T26" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="U26" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="V26" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="W26" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="X26" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
     </row>
     <row r="27">
@@ -29351,16 +29351,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>155.7613016023913</v>
+        <v>129.4053713007105</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>158.8234391199283</v>
@@ -29402,25 +29402,25 @@
         <v>134.3633376148752</v>
       </c>
       <c r="S27" t="n">
-        <v>191.4841495043256</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="U27" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="X27" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="Y27" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
     </row>
     <row r="28">
@@ -29436,7 +29436,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
-        <v>145.1826502507107</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="E28" t="n">
         <v>141.676141212225</v>
@@ -29445,28 +29445,28 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="H28" t="n">
         <v>165.7816030517371</v>
       </c>
       <c r="I28" t="n">
-        <v>164.7082190429235</v>
+        <v>196.2531834292381</v>
       </c>
       <c r="J28" t="n">
-        <v>119.8993073508208</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="K28" t="n">
         <v>66.47076232176846</v>
       </c>
       <c r="L28" t="n">
-        <v>212.9171572481402</v>
+        <v>31.43620997383525</v>
       </c>
       <c r="M28" t="n">
         <v>24.46235891800148</v>
       </c>
       <c r="N28" t="n">
-        <v>26.59996537285927</v>
+        <v>15.78359136610009</v>
       </c>
       <c r="O28" t="n">
         <v>36.79854607717665</v>
@@ -29481,25 +29481,25 @@
         <v>203.2135377342752</v>
       </c>
       <c r="S28" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="T28" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="U28" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="V28" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="W28" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="X28" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="Y28" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
     </row>
     <row r="29">
@@ -29594,19 +29594,19 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.7388631915159</v>
+        <v>24.82200934136939</v>
       </c>
       <c r="H30" t="n">
-        <v>125.6800758778345</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>107.1657389737211</v>
@@ -29645,10 +29645,10 @@
         <v>212.9171572481403</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="V30" t="n">
-        <v>163.5821280050785</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="W30" t="n">
         <v>212.9171572481403</v>
@@ -29697,25 +29697,25 @@
         <v>66.47076232176846</v>
       </c>
       <c r="L31" t="n">
-        <v>212.9171572481403</v>
+        <v>31.43620997383525</v>
       </c>
       <c r="M31" t="n">
         <v>24.46235891800148</v>
       </c>
       <c r="N31" t="n">
-        <v>70.82116099274485</v>
+        <v>15.78359136610009</v>
       </c>
       <c r="O31" t="n">
-        <v>36.79854607717665</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="P31" t="n">
         <v>57.89645227716781</v>
       </c>
       <c r="Q31" t="n">
-        <v>126.8139378168763</v>
+        <v>177.510224032997</v>
       </c>
       <c r="R31" t="n">
-        <v>203.2135377342752</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="S31" t="n">
         <v>212.9171572481403</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>212.9171572481403</v>
+      </c>
+      <c r="C32" t="n">
+        <v>212.9171572481403</v>
+      </c>
+      <c r="D32" t="n">
+        <v>212.9171572481403</v>
+      </c>
+      <c r="E32" t="n">
+        <v>212.9171572481403</v>
+      </c>
+      <c r="F32" t="n">
+        <v>212.9171572481403</v>
+      </c>
+      <c r="G32" t="n">
+        <v>212.9171572481403</v>
+      </c>
+      <c r="H32" t="n">
+        <v>212.9171572481403</v>
+      </c>
+      <c r="I32" t="n">
+        <v>212.9171572481403</v>
+      </c>
+      <c r="J32" t="n">
         <v>212.9171572481402</v>
       </c>
-      <c r="C32" t="n">
-        <v>212.9171572481402</v>
-      </c>
-      <c r="D32" t="n">
-        <v>212.9171572481402</v>
-      </c>
-      <c r="E32" t="n">
-        <v>212.9171572481402</v>
-      </c>
-      <c r="F32" t="n">
-        <v>212.9171572481402</v>
-      </c>
-      <c r="G32" t="n">
-        <v>212.9171572481402</v>
-      </c>
-      <c r="H32" t="n">
-        <v>212.9171572481402</v>
-      </c>
-      <c r="I32" t="n">
-        <v>212.9171572481402</v>
-      </c>
-      <c r="J32" t="n">
-        <v>212.9171572481406</v>
-      </c>
       <c r="K32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="L32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="M32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="N32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="O32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="P32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="R32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="S32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="T32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="U32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="V32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="W32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="X32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="Y32" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
     </row>
     <row r="33">
@@ -29834,13 +29834,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.7388631915159</v>
+        <v>112.0590907116751</v>
       </c>
       <c r="H33" t="n">
         <v>125.6800758778345</v>
@@ -29849,7 +29849,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J33" t="n">
-        <v>51.93274503525221</v>
+        <v>51.9327450352522</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.136586121265598</v>
+        <v>6.136586121265569</v>
       </c>
       <c r="R33" t="n">
         <v>134.3633376148752</v>
@@ -29879,22 +29879,22 @@
         <v>191.4841495043256</v>
       </c>
       <c r="T33" t="n">
-        <v>4.409812928500003</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="Y33" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
     </row>
     <row r="34">
@@ -29928,52 +29928,52 @@
         <v>164.7082190429235</v>
       </c>
       <c r="J34" t="n">
-        <v>119.8993073508208</v>
+        <v>119.8993073508207</v>
       </c>
       <c r="K34" t="n">
-        <v>66.47076232176846</v>
+        <v>105.8557133406777</v>
       </c>
       <c r="L34" t="n">
-        <v>112.9340219038127</v>
+        <v>31.43620997383523</v>
       </c>
       <c r="M34" t="n">
-        <v>24.46235891800148</v>
+        <v>24.46235891800146</v>
       </c>
       <c r="N34" t="n">
-        <v>15.78359136610009</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="O34" t="n">
-        <v>36.79854607717665</v>
+        <v>36.79854607717662</v>
       </c>
       <c r="P34" t="n">
-        <v>212.9171572481402</v>
+        <v>57.8964522771678</v>
       </c>
       <c r="Q34" t="n">
-        <v>126.8139378168763</v>
+        <v>126.8139378168762</v>
       </c>
       <c r="R34" t="n">
         <v>203.2135377342752</v>
       </c>
       <c r="S34" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="T34" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="U34" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="V34" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="W34" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="X34" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="Y34" t="n">
-        <v>212.9171572481402</v>
+        <v>212.9171572481403</v>
       </c>
     </row>
     <row r="35">
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="C35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="D35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="E35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="F35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="G35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="H35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="I35" t="n">
         <v>240.5960845356529</v>
       </c>
       <c r="J35" t="n">
-        <v>75.87088762177223</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="K35" t="n">
-        <v>248.0932339118651</v>
+        <v>5.362241946156907</v>
       </c>
       <c r="L35" t="n">
-        <v>138.9333053163982</v>
+        <v>108.7635780441468</v>
       </c>
       <c r="M35" t="n">
-        <v>245.3274290416893</v>
+        <v>245.3274290416891</v>
       </c>
       <c r="N35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>13.54892393491818</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="Q35" t="n">
-        <v>248.0932339118651</v>
+        <v>88.55297193870587</v>
       </c>
       <c r="R35" t="n">
         <v>194.2075003718243</v>
       </c>
       <c r="S35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="T35" t="n">
-        <v>222.4189089677869</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="U35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="V35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="W35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="X35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="Y35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
     </row>
     <row r="36">
@@ -30065,16 +30065,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>162.2722189803781</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>4.572973148628421</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>148.7388631915159</v>
@@ -30083,10 +30083,10 @@
         <v>125.6800758778345</v>
       </c>
       <c r="I36" t="n">
-        <v>107.1657389737211</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>51.93274503525221</v>
+        <v>51.9327450352522</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,7 +30107,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.136586121265598</v>
+        <v>6.136586121265569</v>
       </c>
       <c r="R36" t="n">
         <v>134.3633376148752</v>
@@ -30122,10 +30122,10 @@
         <v>237.2276917808945</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
@@ -30159,37 +30159,37 @@
         <v>168.6959616282545</v>
       </c>
       <c r="H37" t="n">
-        <v>248.0932339118651</v>
+        <v>165.7816030517371</v>
       </c>
       <c r="I37" t="n">
         <v>164.7082190429235</v>
       </c>
       <c r="J37" t="n">
-        <v>119.8993073508208</v>
+        <v>119.8993073508207</v>
       </c>
       <c r="K37" t="n">
-        <v>66.47076232176846</v>
+        <v>66.47076232176843</v>
       </c>
       <c r="L37" t="n">
-        <v>31.43620997383525</v>
+        <v>31.43620997383523</v>
       </c>
       <c r="M37" t="n">
-        <v>24.46235891800148</v>
+        <v>24.46235891800146</v>
       </c>
       <c r="N37" t="n">
-        <v>15.78359136610009</v>
+        <v>97.26068647461416</v>
       </c>
       <c r="O37" t="n">
-        <v>36.79854607717665</v>
+        <v>36.79854607717662</v>
       </c>
       <c r="P37" t="n">
-        <v>57.89645227716781</v>
+        <v>57.8964522771678</v>
       </c>
       <c r="Q37" t="n">
-        <v>126.8139378168763</v>
+        <v>126.8139378168762</v>
       </c>
       <c r="R37" t="n">
-        <v>205.3632207100766</v>
+        <v>203.2135377342752</v>
       </c>
       <c r="S37" t="n">
         <v>235.3541616935673</v>
@@ -30198,13 +30198,13 @@
         <v>223.7409925368497</v>
       </c>
       <c r="U37" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="V37" t="n">
-        <v>245.1090151844499</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="W37" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="C38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="D38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="E38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="F38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="G38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="H38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="I38" t="n">
-        <v>240.5960845356529</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="J38" t="n">
-        <v>75.87088762177223</v>
+        <v>75.87088762177218</v>
       </c>
       <c r="K38" t="n">
-        <v>239.7342677008166</v>
+        <v>211.4163594292254</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="M38" t="n">
-        <v>245.3274290416893</v>
+        <v>245.3274290416891</v>
       </c>
       <c r="N38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="O38" t="n">
-        <v>248.0932339118651</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>13.54892393491818</v>
+        <v>13.54892393491812</v>
       </c>
       <c r="Q38" t="n">
-        <v>88.55297193870592</v>
+        <v>88.55297193870587</v>
       </c>
       <c r="R38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="S38" t="n">
-        <v>227.2724750164867</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="T38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="U38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="V38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="W38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="X38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="Y38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
     </row>
     <row r="39">
@@ -30299,31 +30299,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.7388631915159</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>125.6800758778345</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>107.1657389737211</v>
       </c>
       <c r="J39" t="n">
-        <v>51.93274503525221</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.136586121265598</v>
+        <v>6.136586121265569</v>
       </c>
       <c r="R39" t="n">
         <v>134.3633376148752</v>
@@ -30362,10 +30362,10 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>28.15772763828929</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>169.4796997517846</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30384,7 +30384,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D40" t="n">
-        <v>213.9206731409271</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E40" t="n">
         <v>141.676141212225</v>
@@ -30402,46 +30402,46 @@
         <v>164.7082190429235</v>
       </c>
       <c r="J40" t="n">
-        <v>119.8993073508208</v>
+        <v>119.8993073508207</v>
       </c>
       <c r="K40" t="n">
-        <v>66.47076232176846</v>
+        <v>150.9320761576978</v>
       </c>
       <c r="L40" t="n">
-        <v>31.43620997383525</v>
+        <v>31.43620997383523</v>
       </c>
       <c r="M40" t="n">
-        <v>24.46235891800148</v>
+        <v>24.46235891800146</v>
       </c>
       <c r="N40" t="n">
-        <v>15.78359136610009</v>
+        <v>15.78359136610006</v>
       </c>
       <c r="O40" t="n">
-        <v>36.79854607717665</v>
+        <v>36.79854607717662</v>
       </c>
       <c r="P40" t="n">
-        <v>57.89645227716781</v>
+        <v>57.8964522771678</v>
       </c>
       <c r="Q40" t="n">
-        <v>126.8139378168763</v>
+        <v>126.8139378168762</v>
       </c>
       <c r="R40" t="n">
         <v>203.2135377342752</v>
       </c>
       <c r="S40" t="n">
-        <v>248.0932339118651</v>
+        <v>235.3541616935673</v>
       </c>
       <c r="T40" t="n">
         <v>223.7409925368497</v>
       </c>
       <c r="U40" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="V40" t="n">
-        <v>248.0932339118651</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30484,34 +30484,34 @@
         <v>240.5960845356529</v>
       </c>
       <c r="K41" t="n">
+        <v>5.362241946156907</v>
+      </c>
+      <c r="L41" t="n">
         <v>240.5960845356529</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>240.5960845356529</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>104.0536288721322</v>
       </c>
       <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
         <v>240.5960845356529</v>
       </c>
-      <c r="P41" t="n">
-        <v>219.9239653001074</v>
-      </c>
       <c r="Q41" t="n">
-        <v>88.55297193870592</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="R41" t="n">
+        <v>194.2075003718243</v>
+      </c>
+      <c r="S41" t="n">
+        <v>227.2724750164867</v>
+      </c>
+      <c r="T41" t="n">
         <v>240.5960845356529</v>
-      </c>
-      <c r="S41" t="n">
-        <v>240.5960845356529</v>
-      </c>
-      <c r="T41" t="n">
-        <v>222.4189089677869</v>
       </c>
       <c r="U41" t="n">
         <v>240.5960845356529</v>
@@ -30545,7 +30545,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
         <v>158.8234391199283</v>
@@ -30554,13 +30554,13 @@
         <v>148.7388631915159</v>
       </c>
       <c r="H42" t="n">
-        <v>125.6800758778345</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>107.1657389737211</v>
       </c>
       <c r="J42" t="n">
-        <v>51.93274503525221</v>
+        <v>51.9327450352522</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,10 +30581,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.136586121265598</v>
+        <v>6.136586121265569</v>
       </c>
       <c r="R42" t="n">
-        <v>134.3633376148752</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>191.4841495043256</v>
@@ -30593,19 +30593,19 @@
         <v>214.9477822055827</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.2276917808945</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>240.5960845356529</v>
+        <v>10.33202360565701</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>142.1320753320143</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30624,13 +30624,13 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E43" t="n">
-        <v>141.676141212225</v>
+        <v>150.6858255934593</v>
       </c>
       <c r="F43" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.6959616282545</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="H43" t="n">
         <v>165.7816030517371</v>
@@ -30639,28 +30639,28 @@
         <v>164.7082190429235</v>
       </c>
       <c r="J43" t="n">
-        <v>119.8993073508208</v>
+        <v>119.8993073508207</v>
       </c>
       <c r="K43" t="n">
-        <v>170.8353813318856</v>
+        <v>66.47076232176843</v>
       </c>
       <c r="L43" t="n">
-        <v>31.43620997383525</v>
+        <v>31.43620997383523</v>
       </c>
       <c r="M43" t="n">
-        <v>24.46235891800148</v>
+        <v>24.46235891800146</v>
       </c>
       <c r="N43" t="n">
-        <v>15.78359136610009</v>
+        <v>15.78359136610006</v>
       </c>
       <c r="O43" t="n">
-        <v>36.79854607717665</v>
+        <v>36.79854607717662</v>
       </c>
       <c r="P43" t="n">
-        <v>57.89645227716781</v>
+        <v>57.8964522771678</v>
       </c>
       <c r="Q43" t="n">
-        <v>126.8139378168763</v>
+        <v>126.8139378168762</v>
       </c>
       <c r="R43" t="n">
         <v>203.2135377342752</v>
@@ -30684,7 +30684,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y43" t="n">
-        <v>217.1412728141684</v>
+        <v>240.5960845356529</v>
       </c>
     </row>
     <row r="44">
@@ -30721,25 +30721,25 @@
         <v>240.5960845356529</v>
       </c>
       <c r="K44" t="n">
-        <v>240.5960845356529</v>
+        <v>5.362241946156914</v>
       </c>
       <c r="L44" t="n">
         <v>240.5960845356529</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="O44" t="n">
-        <v>240.5960845356529</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>63.0272866544607</v>
+        <v>227.8853328731166</v>
       </c>
       <c r="Q44" t="n">
-        <v>240.5960845356529</v>
+        <v>88.55297193870588</v>
       </c>
       <c r="R44" t="n">
         <v>240.5960845356529</v>
@@ -30748,7 +30748,7 @@
         <v>227.2724750164867</v>
       </c>
       <c r="T44" t="n">
-        <v>240.5960845356529</v>
+        <v>222.4189089677869</v>
       </c>
       <c r="U44" t="n">
         <v>240.5960845356529</v>
@@ -30782,13 +30782,13 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>52.27180194449691</v>
       </c>
       <c r="F45" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H45" t="n">
         <v>125.6800758778345</v>
@@ -30797,7 +30797,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J45" t="n">
-        <v>51.93274503525221</v>
+        <v>51.9327450352522</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,7 +30818,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.136586121265598</v>
+        <v>6.136586121265577</v>
       </c>
       <c r="R45" t="n">
         <v>134.3633376148752</v>
@@ -30830,13 +30830,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2276917808945</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>240.5960845356529</v>
       </c>
       <c r="W45" t="n">
-        <v>32.55148605097162</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -30864,7 +30864,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
-        <v>138.9268822184467</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="G46" t="n">
         <v>168.6959616282545</v>
@@ -30876,28 +30876,28 @@
         <v>164.7082190429235</v>
       </c>
       <c r="J46" t="n">
-        <v>224.2639263609379</v>
+        <v>119.8993073508207</v>
       </c>
       <c r="K46" t="n">
-        <v>66.47076232176846</v>
+        <v>66.47076232176843</v>
       </c>
       <c r="L46" t="n">
-        <v>31.43620997383525</v>
+        <v>31.43620997383523</v>
       </c>
       <c r="M46" t="n">
-        <v>24.46235891800148</v>
+        <v>24.46235891800146</v>
       </c>
       <c r="N46" t="n">
-        <v>15.78359136610009</v>
+        <v>15.78359136610006</v>
       </c>
       <c r="O46" t="n">
-        <v>36.79854607717665</v>
+        <v>36.79854607717663</v>
       </c>
       <c r="P46" t="n">
-        <v>57.89645227716781</v>
+        <v>57.8964522771678</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.8139378168763</v>
+        <v>126.8139378168762</v>
       </c>
       <c r="R46" t="n">
         <v>203.2135377342752</v>
@@ -30906,7 +30906,7 @@
         <v>235.3541616935673</v>
       </c>
       <c r="T46" t="n">
-        <v>223.7409925368497</v>
+        <v>226.4364092297608</v>
       </c>
       <c r="U46" t="n">
         <v>240.5960845356529</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4174495561852896</v>
+        <v>0.4174495561852899</v>
       </c>
       <c r="H32" t="n">
-        <v>4.275205267282598</v>
+        <v>4.275205267282602</v>
       </c>
       <c r="I32" t="n">
-        <v>16.09372401483339</v>
+        <v>16.09372401483341</v>
       </c>
       <c r="J32" t="n">
-        <v>35.43050926928125</v>
+        <v>35.43050926928129</v>
       </c>
       <c r="K32" t="n">
-        <v>53.10114898260457</v>
+        <v>53.10114898260462</v>
       </c>
       <c r="L32" t="n">
-        <v>65.87667083771014</v>
+        <v>65.87667083771021</v>
       </c>
       <c r="M32" t="n">
-        <v>73.30048938252028</v>
+        <v>73.30048938252035</v>
       </c>
       <c r="N32" t="n">
-        <v>74.48656793403174</v>
+        <v>74.48656793403181</v>
       </c>
       <c r="O32" t="n">
-        <v>70.33555390971426</v>
+        <v>70.33555390971433</v>
       </c>
       <c r="P32" t="n">
-        <v>60.02976799138992</v>
+        <v>60.02976799138997</v>
       </c>
       <c r="Q32" t="n">
-        <v>45.07985576050422</v>
+        <v>45.07985576050427</v>
       </c>
       <c r="R32" t="n">
-        <v>26.22261568372422</v>
+        <v>26.22261568372424</v>
       </c>
       <c r="S32" t="n">
-        <v>9.512631761572296</v>
+        <v>9.512631761572305</v>
       </c>
       <c r="T32" t="n">
-        <v>1.827385432201106</v>
+        <v>1.827385432201108</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03339596449482316</v>
+        <v>0.03339596449482319</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2233552035759313</v>
+        <v>0.2233552035759315</v>
       </c>
       <c r="H33" t="n">
-        <v>2.157141045062284</v>
+        <v>2.157141045062286</v>
       </c>
       <c r="I33" t="n">
-        <v>7.690080473995881</v>
+        <v>7.690080473995888</v>
       </c>
       <c r="J33" t="n">
-        <v>21.10216859749621</v>
+        <v>21.10216859749623</v>
       </c>
       <c r="K33" t="n">
-        <v>36.06696723708361</v>
+        <v>36.06696723708365</v>
       </c>
       <c r="L33" t="n">
-        <v>48.49648839046701</v>
+        <v>48.49648839046706</v>
       </c>
       <c r="M33" t="n">
-        <v>56.59311452009451</v>
+        <v>56.59311452009457</v>
       </c>
       <c r="N33" t="n">
-        <v>58.09096586337346</v>
+        <v>58.09096586337352</v>
       </c>
       <c r="O33" t="n">
-        <v>53.14188477361203</v>
+        <v>53.14188477361208</v>
       </c>
       <c r="P33" t="n">
-        <v>42.65104760214429</v>
+        <v>42.65104760214432</v>
       </c>
       <c r="Q33" t="n">
-        <v>28.51109581085046</v>
+        <v>28.51109581085049</v>
       </c>
       <c r="R33" t="n">
-        <v>13.86761518342493</v>
+        <v>13.86761518342495</v>
       </c>
       <c r="S33" t="n">
-        <v>4.148724943614335</v>
+        <v>4.148724943614339</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9002782109047403</v>
+        <v>0.9002782109047411</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01469442128789022</v>
+        <v>0.01469442128789024</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1872534996904917</v>
+        <v>0.1872534996904919</v>
       </c>
       <c r="H34" t="n">
-        <v>1.664853842702736</v>
+        <v>1.664853842702738</v>
       </c>
       <c r="I34" t="n">
-        <v>5.631223427055879</v>
+        <v>5.631223427055884</v>
       </c>
       <c r="J34" t="n">
-        <v>13.23882242811776</v>
+        <v>13.23882242811777</v>
       </c>
       <c r="K34" t="n">
-        <v>21.75545205494985</v>
+        <v>21.75545205494987</v>
       </c>
       <c r="L34" t="n">
-        <v>27.8394884903482</v>
+        <v>27.83948849034822</v>
       </c>
       <c r="M34" t="n">
-        <v>29.35283722875589</v>
+        <v>29.35283722875592</v>
       </c>
       <c r="N34" t="n">
-        <v>28.65489236627317</v>
+        <v>28.6548923662732</v>
       </c>
       <c r="O34" t="n">
-        <v>26.46743102897969</v>
+        <v>26.46743102897971</v>
       </c>
       <c r="P34" t="n">
-        <v>22.64745963529364</v>
+        <v>22.64745963529366</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.67992714226472</v>
+        <v>15.67992714226473</v>
       </c>
       <c r="R34" t="n">
-        <v>8.419598267901561</v>
+        <v>8.419598267901568</v>
       </c>
       <c r="S34" t="n">
-        <v>3.263317808242477</v>
+        <v>3.26331780824248</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8000831350411916</v>
+        <v>0.8000831350411923</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01021382725584501</v>
+        <v>0.01021382725584502</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4174495561852896</v>
+        <v>0.4174495561852899</v>
       </c>
       <c r="H35" t="n">
-        <v>4.275205267282598</v>
+        <v>4.275205267282602</v>
       </c>
       <c r="I35" t="n">
-        <v>16.09372401483339</v>
+        <v>16.09372401483341</v>
       </c>
       <c r="J35" t="n">
-        <v>35.43050926928125</v>
+        <v>35.43050926928129</v>
       </c>
       <c r="K35" t="n">
-        <v>53.10114898260457</v>
+        <v>53.10114898260462</v>
       </c>
       <c r="L35" t="n">
-        <v>65.87667083771014</v>
+        <v>65.87667083771021</v>
       </c>
       <c r="M35" t="n">
-        <v>73.30048938252028</v>
+        <v>73.30048938252035</v>
       </c>
       <c r="N35" t="n">
-        <v>74.48656793403174</v>
+        <v>74.48656793403181</v>
       </c>
       <c r="O35" t="n">
-        <v>70.33555390971426</v>
+        <v>70.33555390971433</v>
       </c>
       <c r="P35" t="n">
-        <v>60.02976799138992</v>
+        <v>60.02976799138997</v>
       </c>
       <c r="Q35" t="n">
-        <v>45.07985576050422</v>
+        <v>45.07985576050427</v>
       </c>
       <c r="R35" t="n">
-        <v>26.22261568372422</v>
+        <v>26.22261568372424</v>
       </c>
       <c r="S35" t="n">
-        <v>9.512631761572296</v>
+        <v>9.512631761572305</v>
       </c>
       <c r="T35" t="n">
-        <v>1.827385432201106</v>
+        <v>1.827385432201108</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03339596449482316</v>
+        <v>0.03339596449482319</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2233552035759313</v>
+        <v>0.2233552035759315</v>
       </c>
       <c r="H36" t="n">
-        <v>2.157141045062284</v>
+        <v>2.157141045062286</v>
       </c>
       <c r="I36" t="n">
-        <v>7.690080473995881</v>
+        <v>7.690080473995888</v>
       </c>
       <c r="J36" t="n">
-        <v>21.10216859749621</v>
+        <v>21.10216859749623</v>
       </c>
       <c r="K36" t="n">
-        <v>36.06696723708361</v>
+        <v>36.06696723708365</v>
       </c>
       <c r="L36" t="n">
-        <v>48.49648839046701</v>
+        <v>48.49648839046706</v>
       </c>
       <c r="M36" t="n">
-        <v>56.59311452009451</v>
+        <v>56.59311452009457</v>
       </c>
       <c r="N36" t="n">
-        <v>58.09096586337346</v>
+        <v>58.09096586337352</v>
       </c>
       <c r="O36" t="n">
-        <v>53.14188477361203</v>
+        <v>53.14188477361208</v>
       </c>
       <c r="P36" t="n">
-        <v>42.65104760214429</v>
+        <v>42.65104760214432</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.51109581085046</v>
+        <v>28.51109581085049</v>
       </c>
       <c r="R36" t="n">
-        <v>13.86761518342493</v>
+        <v>13.86761518342495</v>
       </c>
       <c r="S36" t="n">
-        <v>4.148724943614335</v>
+        <v>4.148724943614339</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9002782109047403</v>
+        <v>0.9002782109047411</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01469442128789022</v>
+        <v>0.01469442128789024</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1872534996904917</v>
+        <v>0.1872534996904919</v>
       </c>
       <c r="H37" t="n">
-        <v>1.664853842702736</v>
+        <v>1.664853842702738</v>
       </c>
       <c r="I37" t="n">
-        <v>5.631223427055879</v>
+        <v>5.631223427055884</v>
       </c>
       <c r="J37" t="n">
-        <v>13.23882242811776</v>
+        <v>13.23882242811777</v>
       </c>
       <c r="K37" t="n">
-        <v>21.75545205494985</v>
+        <v>21.75545205494987</v>
       </c>
       <c r="L37" t="n">
-        <v>27.8394884903482</v>
+        <v>27.83948849034822</v>
       </c>
       <c r="M37" t="n">
-        <v>29.35283722875589</v>
+        <v>29.35283722875592</v>
       </c>
       <c r="N37" t="n">
-        <v>28.65489236627317</v>
+        <v>28.6548923662732</v>
       </c>
       <c r="O37" t="n">
-        <v>26.46743102897969</v>
+        <v>26.46743102897971</v>
       </c>
       <c r="P37" t="n">
-        <v>22.64745963529364</v>
+        <v>22.64745963529366</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.67992714226472</v>
+        <v>15.67992714226473</v>
       </c>
       <c r="R37" t="n">
-        <v>8.419598267901561</v>
+        <v>8.419598267901568</v>
       </c>
       <c r="S37" t="n">
-        <v>3.263317808242477</v>
+        <v>3.26331780824248</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8000831350411916</v>
+        <v>0.8000831350411923</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01021382725584501</v>
+        <v>0.01021382725584502</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4174495561852896</v>
+        <v>0.4174495561852899</v>
       </c>
       <c r="H38" t="n">
-        <v>4.275205267282598</v>
+        <v>4.275205267282602</v>
       </c>
       <c r="I38" t="n">
-        <v>16.09372401483339</v>
+        <v>16.09372401483341</v>
       </c>
       <c r="J38" t="n">
-        <v>35.43050926928125</v>
+        <v>35.43050926928129</v>
       </c>
       <c r="K38" t="n">
-        <v>53.10114898260457</v>
+        <v>53.10114898260462</v>
       </c>
       <c r="L38" t="n">
-        <v>65.87667083771014</v>
+        <v>65.87667083771021</v>
       </c>
       <c r="M38" t="n">
-        <v>73.30048938252028</v>
+        <v>73.30048938252035</v>
       </c>
       <c r="N38" t="n">
-        <v>74.48656793403174</v>
+        <v>74.48656793403181</v>
       </c>
       <c r="O38" t="n">
-        <v>70.33555390971426</v>
+        <v>70.33555390971433</v>
       </c>
       <c r="P38" t="n">
-        <v>60.02976799138992</v>
+        <v>60.02976799138997</v>
       </c>
       <c r="Q38" t="n">
-        <v>45.07985576050422</v>
+        <v>45.07985576050427</v>
       </c>
       <c r="R38" t="n">
-        <v>26.22261568372422</v>
+        <v>26.22261568372424</v>
       </c>
       <c r="S38" t="n">
-        <v>9.512631761572296</v>
+        <v>9.512631761572305</v>
       </c>
       <c r="T38" t="n">
-        <v>1.827385432201106</v>
+        <v>1.827385432201108</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03339596449482316</v>
+        <v>0.03339596449482319</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2233552035759313</v>
+        <v>0.2233552035759315</v>
       </c>
       <c r="H39" t="n">
-        <v>2.157141045062284</v>
+        <v>2.157141045062286</v>
       </c>
       <c r="I39" t="n">
-        <v>7.690080473995881</v>
+        <v>7.690080473995888</v>
       </c>
       <c r="J39" t="n">
-        <v>21.10216859749621</v>
+        <v>21.10216859749623</v>
       </c>
       <c r="K39" t="n">
-        <v>36.06696723708361</v>
+        <v>36.06696723708365</v>
       </c>
       <c r="L39" t="n">
-        <v>48.49648839046701</v>
+        <v>48.49648839046706</v>
       </c>
       <c r="M39" t="n">
-        <v>56.59311452009451</v>
+        <v>56.59311452009457</v>
       </c>
       <c r="N39" t="n">
-        <v>58.09096586337346</v>
+        <v>58.09096586337352</v>
       </c>
       <c r="O39" t="n">
-        <v>53.14188477361203</v>
+        <v>53.14188477361208</v>
       </c>
       <c r="P39" t="n">
-        <v>42.65104760214429</v>
+        <v>42.65104760214432</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.51109581085046</v>
+        <v>28.51109581085049</v>
       </c>
       <c r="R39" t="n">
-        <v>13.86761518342493</v>
+        <v>13.86761518342495</v>
       </c>
       <c r="S39" t="n">
-        <v>4.148724943614335</v>
+        <v>4.148724943614339</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9002782109047403</v>
+        <v>0.9002782109047411</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01469442128789022</v>
+        <v>0.01469442128789024</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1872534996904917</v>
+        <v>0.1872534996904919</v>
       </c>
       <c r="H40" t="n">
-        <v>1.664853842702736</v>
+        <v>1.664853842702738</v>
       </c>
       <c r="I40" t="n">
-        <v>5.631223427055879</v>
+        <v>5.631223427055884</v>
       </c>
       <c r="J40" t="n">
-        <v>13.23882242811776</v>
+        <v>13.23882242811777</v>
       </c>
       <c r="K40" t="n">
-        <v>21.75545205494985</v>
+        <v>21.75545205494987</v>
       </c>
       <c r="L40" t="n">
-        <v>27.8394884903482</v>
+        <v>27.83948849034822</v>
       </c>
       <c r="M40" t="n">
-        <v>29.35283722875589</v>
+        <v>29.35283722875592</v>
       </c>
       <c r="N40" t="n">
-        <v>28.65489236627317</v>
+        <v>28.6548923662732</v>
       </c>
       <c r="O40" t="n">
-        <v>26.46743102897969</v>
+        <v>26.46743102897971</v>
       </c>
       <c r="P40" t="n">
-        <v>22.64745963529364</v>
+        <v>22.64745963529366</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.67992714226472</v>
+        <v>15.67992714226473</v>
       </c>
       <c r="R40" t="n">
-        <v>8.419598267901561</v>
+        <v>8.419598267901568</v>
       </c>
       <c r="S40" t="n">
-        <v>3.263317808242477</v>
+        <v>3.26331780824248</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8000831350411916</v>
+        <v>0.8000831350411923</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01021382725584501</v>
+        <v>0.01021382725584502</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4174495561852896</v>
+        <v>0.4174495561852899</v>
       </c>
       <c r="H41" t="n">
-        <v>4.275205267282598</v>
+        <v>4.275205267282602</v>
       </c>
       <c r="I41" t="n">
-        <v>16.09372401483339</v>
+        <v>16.09372401483341</v>
       </c>
       <c r="J41" t="n">
-        <v>35.43050926928125</v>
+        <v>35.43050926928129</v>
       </c>
       <c r="K41" t="n">
-        <v>53.10114898260457</v>
+        <v>53.10114898260462</v>
       </c>
       <c r="L41" t="n">
-        <v>65.87667083771014</v>
+        <v>65.87667083771021</v>
       </c>
       <c r="M41" t="n">
-        <v>73.30048938252028</v>
+        <v>73.30048938252035</v>
       </c>
       <c r="N41" t="n">
-        <v>74.48656793403174</v>
+        <v>74.48656793403181</v>
       </c>
       <c r="O41" t="n">
-        <v>70.33555390971426</v>
+        <v>70.33555390971433</v>
       </c>
       <c r="P41" t="n">
-        <v>60.02976799138992</v>
+        <v>60.02976799138997</v>
       </c>
       <c r="Q41" t="n">
-        <v>45.07985576050422</v>
+        <v>45.07985576050427</v>
       </c>
       <c r="R41" t="n">
-        <v>26.22261568372422</v>
+        <v>26.22261568372424</v>
       </c>
       <c r="S41" t="n">
-        <v>9.512631761572296</v>
+        <v>9.512631761572305</v>
       </c>
       <c r="T41" t="n">
-        <v>1.827385432201106</v>
+        <v>1.827385432201108</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03339596449482316</v>
+        <v>0.03339596449482319</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2233552035759313</v>
+        <v>0.2233552035759315</v>
       </c>
       <c r="H42" t="n">
-        <v>2.157141045062284</v>
+        <v>2.157141045062286</v>
       </c>
       <c r="I42" t="n">
-        <v>7.690080473995881</v>
+        <v>7.690080473995888</v>
       </c>
       <c r="J42" t="n">
-        <v>21.10216859749621</v>
+        <v>21.10216859749623</v>
       </c>
       <c r="K42" t="n">
-        <v>36.06696723708361</v>
+        <v>36.06696723708365</v>
       </c>
       <c r="L42" t="n">
-        <v>48.49648839046701</v>
+        <v>48.49648839046706</v>
       </c>
       <c r="M42" t="n">
-        <v>56.59311452009451</v>
+        <v>56.59311452009457</v>
       </c>
       <c r="N42" t="n">
-        <v>58.09096586337346</v>
+        <v>58.09096586337352</v>
       </c>
       <c r="O42" t="n">
-        <v>53.14188477361203</v>
+        <v>53.14188477361208</v>
       </c>
       <c r="P42" t="n">
-        <v>42.65104760214429</v>
+        <v>42.65104760214432</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.51109581085046</v>
+        <v>28.51109581085049</v>
       </c>
       <c r="R42" t="n">
-        <v>13.86761518342493</v>
+        <v>13.86761518342495</v>
       </c>
       <c r="S42" t="n">
-        <v>4.148724943614335</v>
+        <v>4.148724943614339</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9002782109047403</v>
+        <v>0.9002782109047411</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01469442128789022</v>
+        <v>0.01469442128789024</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1872534996904917</v>
+        <v>0.1872534996904919</v>
       </c>
       <c r="H43" t="n">
-        <v>1.664853842702736</v>
+        <v>1.664853842702738</v>
       </c>
       <c r="I43" t="n">
-        <v>5.631223427055879</v>
+        <v>5.631223427055884</v>
       </c>
       <c r="J43" t="n">
-        <v>13.23882242811776</v>
+        <v>13.23882242811777</v>
       </c>
       <c r="K43" t="n">
-        <v>21.75545205494985</v>
+        <v>21.75545205494987</v>
       </c>
       <c r="L43" t="n">
-        <v>27.8394884903482</v>
+        <v>27.83948849034822</v>
       </c>
       <c r="M43" t="n">
-        <v>29.35283722875589</v>
+        <v>29.35283722875592</v>
       </c>
       <c r="N43" t="n">
-        <v>28.65489236627317</v>
+        <v>28.6548923662732</v>
       </c>
       <c r="O43" t="n">
-        <v>26.46743102897969</v>
+        <v>26.46743102897971</v>
       </c>
       <c r="P43" t="n">
-        <v>22.64745963529364</v>
+        <v>22.64745963529366</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.67992714226472</v>
+        <v>15.67992714226473</v>
       </c>
       <c r="R43" t="n">
-        <v>8.419598267901561</v>
+        <v>8.419598267901568</v>
       </c>
       <c r="S43" t="n">
-        <v>3.263317808242477</v>
+        <v>3.26331780824248</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8000831350411916</v>
+        <v>0.8000831350411923</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01021382725584501</v>
+        <v>0.01021382725584502</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4174495561852896</v>
+        <v>0.4174495561852899</v>
       </c>
       <c r="H44" t="n">
-        <v>4.275205267282598</v>
+        <v>4.275205267282601</v>
       </c>
       <c r="I44" t="n">
-        <v>16.09372401483339</v>
+        <v>16.09372401483341</v>
       </c>
       <c r="J44" t="n">
-        <v>35.43050926928125</v>
+        <v>35.43050926928128</v>
       </c>
       <c r="K44" t="n">
-        <v>53.10114898260457</v>
+        <v>53.10114898260461</v>
       </c>
       <c r="L44" t="n">
-        <v>65.87667083771014</v>
+        <v>65.87667083771019</v>
       </c>
       <c r="M44" t="n">
-        <v>73.30048938252028</v>
+        <v>73.30048938252034</v>
       </c>
       <c r="N44" t="n">
-        <v>74.48656793403174</v>
+        <v>74.4865679340318</v>
       </c>
       <c r="O44" t="n">
-        <v>70.33555390971426</v>
+        <v>70.33555390971432</v>
       </c>
       <c r="P44" t="n">
-        <v>60.02976799138992</v>
+        <v>60.02976799138997</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.07985576050422</v>
+        <v>45.07985576050426</v>
       </c>
       <c r="R44" t="n">
-        <v>26.22261568372422</v>
+        <v>26.22261568372424</v>
       </c>
       <c r="S44" t="n">
-        <v>9.512631761572296</v>
+        <v>9.512631761572303</v>
       </c>
       <c r="T44" t="n">
-        <v>1.827385432201106</v>
+        <v>1.827385432201108</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03339596449482316</v>
+        <v>0.03339596449482318</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2233552035759313</v>
+        <v>0.2233552035759315</v>
       </c>
       <c r="H45" t="n">
-        <v>2.157141045062284</v>
+        <v>2.157141045062286</v>
       </c>
       <c r="I45" t="n">
-        <v>7.690080473995881</v>
+        <v>7.690080473995887</v>
       </c>
       <c r="J45" t="n">
-        <v>21.10216859749621</v>
+        <v>21.10216859749623</v>
       </c>
       <c r="K45" t="n">
-        <v>36.06696723708361</v>
+        <v>36.06696723708364</v>
       </c>
       <c r="L45" t="n">
-        <v>48.49648839046701</v>
+        <v>48.49648839046706</v>
       </c>
       <c r="M45" t="n">
-        <v>56.59311452009451</v>
+        <v>56.59311452009456</v>
       </c>
       <c r="N45" t="n">
-        <v>58.09096586337346</v>
+        <v>58.09096586337351</v>
       </c>
       <c r="O45" t="n">
-        <v>53.14188477361203</v>
+        <v>53.14188477361208</v>
       </c>
       <c r="P45" t="n">
-        <v>42.65104760214429</v>
+        <v>42.65104760214432</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.51109581085046</v>
+        <v>28.51109581085048</v>
       </c>
       <c r="R45" t="n">
-        <v>13.86761518342493</v>
+        <v>13.86761518342494</v>
       </c>
       <c r="S45" t="n">
-        <v>4.148724943614335</v>
+        <v>4.148724943614338</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9002782109047403</v>
+        <v>0.900278210904741</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01469442128789022</v>
+        <v>0.01469442128789023</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1872534996904917</v>
+        <v>0.1872534996904918</v>
       </c>
       <c r="H46" t="n">
-        <v>1.664853842702736</v>
+        <v>1.664853842702738</v>
       </c>
       <c r="I46" t="n">
-        <v>5.631223427055879</v>
+        <v>5.631223427055883</v>
       </c>
       <c r="J46" t="n">
-        <v>13.23882242811776</v>
+        <v>13.23882242811777</v>
       </c>
       <c r="K46" t="n">
-        <v>21.75545205494985</v>
+        <v>21.75545205494987</v>
       </c>
       <c r="L46" t="n">
-        <v>27.8394884903482</v>
+        <v>27.83948849034822</v>
       </c>
       <c r="M46" t="n">
-        <v>29.35283722875589</v>
+        <v>29.35283722875591</v>
       </c>
       <c r="N46" t="n">
-        <v>28.65489236627317</v>
+        <v>28.6548923662732</v>
       </c>
       <c r="O46" t="n">
-        <v>26.46743102897969</v>
+        <v>26.46743102897971</v>
       </c>
       <c r="P46" t="n">
-        <v>22.64745963529364</v>
+        <v>22.64745963529366</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.67992714226472</v>
+        <v>15.67992714226473</v>
       </c>
       <c r="R46" t="n">
-        <v>8.419598267901561</v>
+        <v>8.419598267901568</v>
       </c>
       <c r="S46" t="n">
-        <v>3.263317808242477</v>
+        <v>3.263317808242479</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8000831350411916</v>
+        <v>0.8000831350411922</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01021382725584501</v>
+        <v>0.01021382725584502</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="L11" t="n">
         <v>48.88611160301757</v>
       </c>
       <c r="M11" t="n">
-        <v>92.12330390424401</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="N11" t="n">
         <v>78.00343736515654</v>
@@ -35425,10 +35425,10 @@
         <v>36.37425343351543</v>
       </c>
       <c r="P11" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>105.8295037361487</v>
+        <v>75.9035093667883</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35492,19 +35492,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>119.7646888156621</v>
+        <v>31.55186885953253</v>
       </c>
       <c r="M12" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="N12" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="O12" t="n">
-        <v>119.4026229528156</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>85.56614463534068</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35547,37 +35547,37 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>49.19982542414394</v>
       </c>
       <c r="E13" t="n">
-        <v>52.70633446262963</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>55.45559345640797</v>
+        <v>55.455593456408</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>28.60087262311748</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>29.15194466512784</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>119.0938612771298</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>41.22676642120261</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="L14" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="M14" t="n">
         <v>83.56285454860304</v>
@@ -35659,7 +35659,7 @@
         <v>78.00343736515654</v>
       </c>
       <c r="O14" t="n">
-        <v>36.37425343351543</v>
+        <v>77.42604455168797</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>0.1749753030303118</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>39.27388527251662</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>119.7646888156621</v>
       </c>
       <c r="M15" t="n">
-        <v>116.6118913185629</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="N15" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>33.83647831747514</v>
       </c>
       <c r="P15" t="n">
         <v>85.56614463534068</v>
@@ -35778,16 +35778,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.76555500988658</v>
+        <v>16.76555500988655</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>27.9252947028823</v>
       </c>
       <c r="D16" t="n">
-        <v>49.19982542414397</v>
+        <v>49.19982542414394</v>
       </c>
       <c r="E16" t="n">
-        <v>52.70633446262968</v>
+        <v>36.12231956934469</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -35796,22 +35796,22 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>28.60087262311754</v>
+        <v>28.60087262311751</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>29.67425663193111</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>108.5840742995066</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -35823,7 +35823,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>67.56853785797838</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>67.24827617358899</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35914,7 +35914,7 @@
         <v>98.46087464136508</v>
       </c>
       <c r="U17" t="n">
-        <v>70.73010055044004</v>
+        <v>15.92907845042485</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>39.27388527251662</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>31.55186885953253</v>
       </c>
       <c r="M18" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="N18" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="O18" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="P18" t="n">
-        <v>77.8441282223565</v>
+        <v>85.56614463534068</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>48.88611160301757</v>
       </c>
       <c r="M20" t="n">
-        <v>122.0492982736046</v>
+        <v>83.56285454860304</v>
       </c>
       <c r="N20" t="n">
         <v>78.00343736515654</v>
@@ -36139,19 +36139,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>5.173408816348068</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>43.65985254135001</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>70.73010055043999</v>
+        <v>70.73010055043987</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36203,16 +36203,16 @@
         <v>39.27388527251662</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>119.7646888156621</v>
       </c>
       <c r="M21" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="N21" t="n">
-        <v>114.3272818606204</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>122.0492982736046</v>
+        <v>116.6118913185632</v>
       </c>
       <c r="P21" t="n">
         <v>85.56614463534068</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>80.28369907349892</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -36367,10 +36367,10 @@
         <v>83.56285454860304</v>
       </c>
       <c r="N23" t="n">
-        <v>122.0492982736046</v>
+        <v>78.00343736515654</v>
       </c>
       <c r="O23" t="n">
-        <v>36.37425343351543</v>
+        <v>121.7997051749721</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36382,16 +36382,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>23.2024152651413</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>98.46087464136502</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>70.73010055043999</v>
+        <v>70.73010055043987</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36443,16 +36443,16 @@
         <v>119.7646888156621</v>
       </c>
       <c r="M24" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736049</v>
       </c>
       <c r="N24" t="n">
-        <v>116.6118913185631</v>
+        <v>80.12873768029962</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>122.0492982736049</v>
       </c>
       <c r="P24" t="n">
-        <v>85.56614463534068</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>137.046269626368</v>
+        <v>137.0462696263681</v>
       </c>
       <c r="K26" t="n">
         <v>207.5549153019833</v>
@@ -36610,13 +36610,13 @@
         <v>249.2914106816557</v>
       </c>
       <c r="P26" t="n">
-        <v>199.368233313222</v>
+        <v>199.3682333132221</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.3641853094343</v>
+        <v>124.3641853094347</v>
       </c>
       <c r="R26" t="n">
-        <v>18.70965687631589</v>
+        <v>18.70965687631595</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36732,7 +36732,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>67.73450699742958</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -36741,28 +36741,28 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>44.22119561988575</v>
+        <v>44.22119561988581</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>31.54496438631459</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>93.01784989731952</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>181.480947274305</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>10.81637400675919</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.046269626368</v>
+        <v>137.0462696263681</v>
       </c>
       <c r="K29" t="n">
         <v>207.5549153019833</v>
@@ -36850,10 +36850,10 @@
         <v>199.3682333132221</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.3641853094343</v>
+        <v>124.3641853094344</v>
       </c>
       <c r="R29" t="n">
-        <v>18.70965687631592</v>
+        <v>18.70965687631596</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36993,25 +36993,25 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>181.480947274305</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>55.03756962664476</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>176.1186111709636</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>50.69628621612075</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.703619513865076</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0462696263684</v>
+        <v>137.046269626368</v>
       </c>
       <c r="K32" t="n">
-        <v>207.5549153019833</v>
+        <v>207.5549153019834</v>
       </c>
       <c r="L32" t="n">
-        <v>261.8032688511578</v>
+        <v>261.8032688511579</v>
       </c>
       <c r="M32" t="n">
-        <v>296.4800117967433</v>
+        <v>296.4800117967434</v>
       </c>
       <c r="N32" t="n">
-        <v>290.9205946132968</v>
+        <v>290.9205946132969</v>
       </c>
       <c r="O32" t="n">
-        <v>249.2914106816557</v>
+        <v>249.2914106816558</v>
       </c>
       <c r="P32" t="n">
-        <v>199.368233313222</v>
+        <v>199.3682333132222</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.3641853094343</v>
+        <v>124.3641853094344</v>
       </c>
       <c r="R32" t="n">
-        <v>18.70965687631589</v>
+        <v>18.70965687631598</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>39.27388527251662</v>
+        <v>39.27388527251665</v>
       </c>
       <c r="L33" t="n">
         <v>119.7646888156621</v>
       </c>
       <c r="M33" t="n">
-        <v>184.9664744452321</v>
+        <v>184.9664744452322</v>
       </c>
       <c r="N33" t="n">
         <v>208.4679356963295</v>
@@ -37163,7 +37163,7 @@
         <v>134.3972494427106</v>
       </c>
       <c r="P33" t="n">
-        <v>85.56614463534068</v>
+        <v>85.56614463534072</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37227,22 +37227,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>39.3849510189093</v>
       </c>
       <c r="L34" t="n">
-        <v>81.4978119299775</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>197.1335658820402</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>155.0207049709724</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,37 +37303,37 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>172.222346290093</v>
       </c>
       <c r="K35" t="n">
-        <v>242.7309919657082</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>187.8194169194157</v>
+        <v>157.6496896471644</v>
       </c>
       <c r="M35" t="n">
         <v>328.8902835902923</v>
       </c>
       <c r="N35" t="n">
-        <v>326.0966712770216</v>
+        <v>326.0966712770218</v>
       </c>
       <c r="O35" t="n">
-        <v>36.37425343351543</v>
+        <v>36.37425343351551</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>234.544309976947</v>
       </c>
       <c r="Q35" t="n">
-        <v>159.5402619731592</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>20.82075889537842</v>
+        <v>20.82075889537846</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>25.67432494407822</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>39.27388527251662</v>
+        <v>39.27388527251665</v>
       </c>
       <c r="L36" t="n">
         <v>119.7646888156621</v>
       </c>
       <c r="M36" t="n">
-        <v>184.9664744452321</v>
+        <v>184.9664744452322</v>
       </c>
       <c r="N36" t="n">
         <v>208.4679356963295</v>
@@ -37400,7 +37400,7 @@
         <v>134.3972494427106</v>
       </c>
       <c r="P36" t="n">
-        <v>85.56614463534068</v>
+        <v>85.56614463534072</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37455,7 +37455,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>82.31163086012799</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>81.47709510851411</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -37485,7 +37485,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>2.149682975801433</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37497,7 +37497,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>2.984218727415254</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -37537,25 +37537,25 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>7.497149376212256</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>234.3720257546597</v>
+        <v>206.0541174830685</v>
       </c>
       <c r="L38" t="n">
-        <v>48.88611160301757</v>
+        <v>296.9793455148828</v>
       </c>
       <c r="M38" t="n">
         <v>328.8902835902923</v>
       </c>
       <c r="N38" t="n">
-        <v>326.0966712770216</v>
+        <v>326.0966712770218</v>
       </c>
       <c r="O38" t="n">
-        <v>284.4674873453806</v>
+        <v>36.37425343351551</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37564,13 +37564,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>53.88573354004079</v>
+        <v>53.88573354004085</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>20.82075889537846</v>
       </c>
       <c r="T38" t="n">
-        <v>25.67432494407819</v>
+        <v>25.67432494407822</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>39.27388527251662</v>
+        <v>39.27388527251665</v>
       </c>
       <c r="L39" t="n">
         <v>119.7646888156621</v>
       </c>
       <c r="M39" t="n">
-        <v>184.9664744452321</v>
+        <v>184.9664744452322</v>
       </c>
       <c r="N39" t="n">
         <v>208.4679356963295</v>
@@ -37637,7 +37637,7 @@
         <v>134.3972494427106</v>
       </c>
       <c r="P39" t="n">
-        <v>85.56614463534068</v>
+        <v>85.56614463534072</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37680,7 +37680,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>68.73802289021641</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>84.46131383592936</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -37725,7 +37725,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>12.73907221829779</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37734,7 +37734,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>2.984218727415225</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -37780,34 +37780,34 @@
         <v>164.7251969138807</v>
       </c>
       <c r="K41" t="n">
-        <v>235.233842589496</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>48.88611160301757</v>
+        <v>289.4821961386705</v>
       </c>
       <c r="M41" t="n">
         <v>324.158939084256</v>
       </c>
       <c r="N41" t="n">
-        <v>78.00343736515654</v>
+        <v>182.0570662372888</v>
       </c>
       <c r="O41" t="n">
-        <v>276.9703379691683</v>
+        <v>36.37425343351551</v>
       </c>
       <c r="P41" t="n">
-        <v>206.3750413651892</v>
+        <v>227.0471606007348</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>152.043112596947</v>
       </c>
       <c r="R41" t="n">
-        <v>46.38858416382858</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>13.32360951916621</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>18.17717556786596</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>39.27388527251662</v>
+        <v>39.27388527251665</v>
       </c>
       <c r="L42" t="n">
         <v>119.7646888156621</v>
       </c>
       <c r="M42" t="n">
-        <v>184.9664744452321</v>
+        <v>184.9664744452322</v>
       </c>
       <c r="N42" t="n">
         <v>208.4679356963295</v>
@@ -37874,7 +37874,7 @@
         <v>134.3972494427106</v>
       </c>
       <c r="P42" t="n">
-        <v>85.56614463534068</v>
+        <v>85.56614463534072</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37920,13 +37920,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>9.009684381234333</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>71.90012290739843</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>104.3646190101172</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -37980,7 +37980,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>23.45481172148448</v>
       </c>
     </row>
     <row r="44">
@@ -38017,25 +38017,25 @@
         <v>164.7251969138807</v>
       </c>
       <c r="K44" t="n">
-        <v>235.233842589496</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>289.4821961386705</v>
       </c>
       <c r="M44" t="n">
-        <v>83.56285454860304</v>
+        <v>324.158939084256</v>
       </c>
       <c r="N44" t="n">
-        <v>78.00343736515654</v>
+        <v>318.5995219008095</v>
       </c>
       <c r="O44" t="n">
-        <v>276.9703379691683</v>
+        <v>36.37425343351549</v>
       </c>
       <c r="P44" t="n">
-        <v>49.47836271954252</v>
+        <v>214.3364089381985</v>
       </c>
       <c r="Q44" t="n">
-        <v>152.043112596947</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>46.38858416382858</v>
@@ -38044,7 +38044,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>18.17717556786598</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.27388527251662</v>
+        <v>39.27388527251664</v>
       </c>
       <c r="L45" t="n">
         <v>119.7646888156621</v>
       </c>
       <c r="M45" t="n">
-        <v>184.9664744452321</v>
+        <v>184.9664744452322</v>
       </c>
       <c r="N45" t="n">
         <v>208.4679356963295</v>
@@ -38111,7 +38111,7 @@
         <v>134.3972494427106</v>
       </c>
       <c r="P45" t="n">
-        <v>85.56614463534068</v>
+        <v>85.56614463534072</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38160,7 +38160,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>101.6692023172062</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>104.3646190101172</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -38202,7 +38202,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>2.695416692911019</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
